--- a/ARCProject/ArcTest.xlsx
+++ b/ARCProject/ArcTest.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView windowHeight="6210" windowWidth="14850" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="6120"/>
   </bookViews>
   <sheets>
-    <sheet name="NewBuildingProject" r:id="rId1" sheetId="1"/>
-    <sheet name="BTeam" r:id="rId2" sheetId="10"/>
-    <sheet name="NewCityProject" r:id="rId3" sheetId="5"/>
-    <sheet name="NewCommunityProject" r:id="rId4" sheetId="6"/>
-    <sheet name="Payment" r:id="rId5" sheetId="2"/>
-    <sheet name="Login" r:id="rId6" sheetId="3"/>
-    <sheet name="Add Meter" r:id="rId7" sheetId="4"/>
-    <sheet name="BEnergy" r:id="rId8" sheetId="7"/>
-    <sheet name="BWater" r:id="rId9" sheetId="8"/>
-    <sheet name="BWaste" r:id="rId10" sheetId="9"/>
+    <sheet name="NewBuildingProject" sheetId="1" r:id="rId1"/>
+    <sheet name="BTeam" sheetId="10" r:id="rId2"/>
+    <sheet name="NewCityProject" sheetId="5" r:id="rId3"/>
+    <sheet name="NewCommunityProject" sheetId="6" r:id="rId4"/>
+    <sheet name="Payment" sheetId="2" r:id="rId5"/>
+    <sheet name="Login" sheetId="3" r:id="rId6"/>
+    <sheet name="Add Meter" sheetId="4" r:id="rId7"/>
+    <sheet name="BEnergy" sheetId="7" r:id="rId8"/>
+    <sheet name="BWater" sheetId="8" r:id="rId9"/>
+    <sheet name="BWaste" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="W1:AJ18"/>
+  <oleSize ref="A1:G18"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="209">
   <si>
     <t>Project Name</t>
   </si>
@@ -169,9 +169,6 @@
     <t>Kowloon</t>
   </si>
   <si>
-    <t>987341</t>
-  </si>
-  <si>
     <t>is_station</t>
   </si>
   <si>
@@ -286,9 +283,6 @@
     <t>77123</t>
   </si>
   <si>
-    <t>9000</t>
-  </si>
-  <si>
     <t>Building None</t>
   </si>
   <si>
@@ -307,9 +301,6 @@
     <t>Switzerland</t>
   </si>
   <si>
-    <t>6500</t>
-  </si>
-  <si>
     <t>217 Copehegan</t>
   </si>
   <si>
@@ -493,9 +484,6 @@
     <t>ssinha@usgbc.org</t>
   </si>
   <si>
-    <t>10000</t>
-  </si>
-  <si>
     <t>Alabama</t>
   </si>
   <si>
@@ -664,23 +652,16 @@
     <t>Indiana</t>
   </si>
   <si>
-    <t>US Building 562060</t>
-  </si>
-  <si>
     <t>US Building 306051</t>
   </si>
   <si>
-    <t>US Building LEED v4 261376</t>
-  </si>
-  <si>
-    <t>US Building LEED v4 153143</t>
+    <t>98734</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -726,27 +707,27 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="15" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -763,10 +744,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -801,7 +782,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -836,7 +817,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -930,21 +911,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -961,7 +942,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1013,43 +994,43 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="25.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="9" max="9" style="2" width="9.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="14" max="14" style="2" width="9.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="5" width="12.140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.140625" style="2" collapsed="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.140625" style="2" collapsed="1"/>
+    <col min="15" max="15" width="12.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="15.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
@@ -1063,7 +1044,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -1099,42 +1080,42 @@
         <v>31</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -1149,16 +1130,16 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
@@ -1167,30 +1148,30 @@
         <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>34</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1229,296 +1210,466 @@
         <v>45</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="P3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
         <v>59</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>60</v>
-      </c>
-      <c r="F4" t="s">
-        <v>61</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="L4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="U4" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
         <v>73</v>
       </c>
-      <c r="D5" t="s">
-        <v>74</v>
-      </c>
       <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s">
         <v>76</v>
       </c>
-      <c r="F5" t="s">
-        <v>77</v>
-      </c>
       <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
         <v>78</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>84</v>
+      <c r="X5" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" t="s">
         <v>87</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>88</v>
-      </c>
-      <c r="E6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" t="s">
-        <v>90</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="N6" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>97</v>
+      <c r="X6" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G3"/>
-    <hyperlink r:id="rId2" ref="G4"/>
-    <hyperlink r:id="rId3" ref="G5"/>
-    <hyperlink r:id="rId4" ref="G6"/>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
+    <hyperlink ref="G6" r:id="rId4"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H2" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="G1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H1" t="s">
-        <v>188</v>
-      </c>
-      <c r="I1" t="s">
-        <v>191</v>
-      </c>
-      <c r="J1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="I2" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="F3" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="G3" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>194</v>
+    </row>
+    <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -1526,15 +1677,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="11" max="12" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="14.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -1563,7 +1714,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -1584,175 +1735,175 @@
         <v>31</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
         <v>98</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" t="s">
         <v>104</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J2" t="s">
-        <v>107</v>
-      </c>
       <c r="K2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K3" t="s">
         <v>113</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="L3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" t="s">
         <v>114</v>
       </c>
-      <c r="J3" t="s">
+      <c r="N3" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="K3" t="s">
-        <v>116</v>
-      </c>
-      <c r="L3" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" t="s">
-        <v>117</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K4" t="s">
         <v>122</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="L4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M4" t="s">
         <v>123</v>
       </c>
-      <c r="J4" t="s">
+      <c r="N4" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="K4" t="s">
-        <v>125</v>
-      </c>
-      <c r="L4" t="s">
-        <v>95</v>
-      </c>
-      <c r="M4" t="s">
-        <v>126</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F2"/>
-    <hyperlink r:id="rId2" ref="F3"/>
-    <hyperlink r:id="rId3" ref="F4"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
@@ -1760,19 +1911,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="11" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -1801,7 +1952,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -1832,182 +1983,182 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
         <v>128</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="K2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" t="s">
         <v>132</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="J2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K2" t="s">
-        <v>125</v>
-      </c>
-      <c r="L2" t="s">
-        <v>95</v>
-      </c>
-      <c r="M2" t="s">
-        <v>135</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="J3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="J3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K3" t="s">
-        <v>141</v>
-      </c>
-      <c r="L3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" t="s">
-        <v>141</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J4" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4" t="s">
         <v>146</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="L4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4" t="s">
         <v>147</v>
       </c>
-      <c r="J4" t="s">
+      <c r="N4" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="K4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M4" t="s">
-        <v>150</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F2"/>
-    <hyperlink r:id="rId2" ref="F3"/>
-    <hyperlink r:id="rId3" ref="F4"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="3" max="5" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="1" max="2" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" t="s">
         <v>161</v>
-      </c>
-      <c r="D1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" t="s">
-        <v>165</v>
       </c>
       <c r="F1" t="s">
         <v>19</v>
@@ -2034,24 +2185,24 @@
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -2063,49 +2214,229 @@
         <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" t="s">
+        <v>206</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>164</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>164</v>
+      </c>
+      <c r="J5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" t="s">
+        <v>206</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>164</v>
+      </c>
+      <c r="J6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" t="s">
+        <v>206</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G2"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="1" max="1" width="19.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
         <v>25</v>
@@ -2113,29 +2444,61 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="1" max="1" width="14" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2146,7 +2509,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -2154,26 +2517,58 @@
         <v>30</v>
       </c>
     </row>
+    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2181,74 +2576,178 @@
         <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F2" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="H2" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>177</v>
+    </row>
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" width="20" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2256,48 +2755,140 @@
         <v>27</v>
       </c>
       <c r="B1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>178</v>
       </c>
-      <c r="E1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="G3" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>177</v>
+    </row>
+    <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ARCProject/ArcTest.xlsx
+++ b/ARCProject/ArcTest.xlsx
@@ -1005,7 +1005,7 @@
   <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ARCProject/ArcTest.xlsx
+++ b/ARCProject/ArcTest.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="6120"/>
+    <workbookView windowHeight="6120" windowWidth="14790" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="NewBuildingProject" sheetId="1" r:id="rId1"/>
-    <sheet name="BTeam" sheetId="10" r:id="rId2"/>
-    <sheet name="NewCityProject" sheetId="5" r:id="rId3"/>
-    <sheet name="NewCommunityProject" sheetId="6" r:id="rId4"/>
-    <sheet name="Payment" sheetId="2" r:id="rId5"/>
-    <sheet name="Login" sheetId="3" r:id="rId6"/>
-    <sheet name="Add Meter" sheetId="4" r:id="rId7"/>
-    <sheet name="BEnergy" sheetId="7" r:id="rId8"/>
-    <sheet name="BWater" sheetId="8" r:id="rId9"/>
-    <sheet name="BWaste" sheetId="9" r:id="rId10"/>
+    <sheet name="NewBuildingProject" r:id="rId1" sheetId="1"/>
+    <sheet name="BTeam" r:id="rId2" sheetId="10"/>
+    <sheet name="NewCityProject" r:id="rId3" sheetId="5"/>
+    <sheet name="NewCommunityProject" r:id="rId4" sheetId="6"/>
+    <sheet name="Payment" r:id="rId5" sheetId="2"/>
+    <sheet name="Login" r:id="rId6" sheetId="3"/>
+    <sheet name="Add Meter" r:id="rId7" sheetId="4"/>
+    <sheet name="BEnergy" r:id="rId8" sheetId="7"/>
+    <sheet name="BWater" r:id="rId9" sheetId="8"/>
+    <sheet name="BWaste" r:id="rId10" sheetId="9"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:G18"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="211">
   <si>
     <t>Project Name</t>
   </si>
@@ -656,12 +656,19 @@
   </si>
   <si>
     <t>98734</t>
+  </si>
+  <si>
+    <t>US Building Other 392105</t>
+  </si>
+  <si>
+    <t>US Building Other 775828</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -707,27 +714,27 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="15" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -744,10 +751,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -782,7 +789,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -817,7 +824,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -911,21 +918,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -942,7 +949,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -994,15 +1001,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
@@ -1010,27 +1017,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.140625" style="2" collapsed="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.140625" style="2" collapsed="1"/>
-    <col min="15" max="15" width="12.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="24.06640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="9" max="9" style="2" width="9.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="14" max="14" style="2" width="9.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="5" width="12.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
@@ -1277,7 +1284,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1383,19 +1390,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1"/>
-    <hyperlink ref="G4" r:id="rId2"/>
-    <hyperlink ref="G5" r:id="rId3"/>
-    <hyperlink ref="G6" r:id="rId4"/>
+    <hyperlink r:id="rId1" ref="G3"/>
+    <hyperlink r:id="rId2" ref="G4"/>
+    <hyperlink r:id="rId3" ref="G5"/>
+    <hyperlink r:id="rId4" ref="G6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="F6" sqref="A6:XFD6"/>
@@ -1403,16 +1410,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1447,7 +1454,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>168</v>
       </c>
@@ -1479,7 +1486,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>168</v>
       </c>
@@ -1511,7 +1518,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>168</v>
       </c>
@@ -1543,7 +1550,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>168</v>
       </c>
@@ -1575,7 +1582,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>168</v>
       </c>
@@ -1608,13 +1615,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1622,7 +1629,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -1657,19 +1664,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink r:id="rId2" ref="A3"/>
+    <hyperlink r:id="rId3" ref="A4"/>
+    <hyperlink r:id="rId4" ref="A5"/>
+    <hyperlink r:id="rId5" ref="A6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -1677,15 +1684,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -1893,17 +1900,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink r:id="rId1" ref="F2"/>
+    <hyperlink r:id="rId2" ref="F3"/>
+    <hyperlink r:id="rId3" ref="F4"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
@@ -1911,19 +1918,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -2115,17 +2122,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink r:id="rId1" ref="F2"/>
+    <hyperlink r:id="rId2" ref="F3"/>
+    <hyperlink r:id="rId3" ref="F4"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
@@ -2133,15 +2140,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="3" max="5" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2188,7 +2195,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>200</v>
       </c>
@@ -2232,7 +2239,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -2276,7 +2283,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>200</v>
       </c>
@@ -2320,7 +2327,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>200</v>
       </c>
@@ -2364,7 +2371,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>200</v>
       </c>
@@ -2410,20 +2417,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
-    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink r:id="rId1" ref="G2"/>
+    <hyperlink r:id="rId2" ref="G3"/>
+    <hyperlink r:id="rId3" ref="G4"/>
+    <hyperlink r:id="rId4" ref="G5"/>
+    <hyperlink r:id="rId5" ref="G6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -2431,7 +2438,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2450,7 +2457,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>154</v>
       </c>
@@ -2458,7 +2465,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>154</v>
       </c>
@@ -2466,7 +2473,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>154</v>
       </c>
@@ -2474,7 +2481,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>154</v>
       </c>
@@ -2483,13 +2490,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -2497,8 +2504,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2509,7 +2516,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -2517,7 +2524,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2525,7 +2532,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -2533,7 +2540,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2541,7 +2548,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2550,13 +2557,190 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row customFormat="1" r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row customFormat="1" r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row customFormat="1" r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row customFormat="1" r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2565,189 +2749,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2773,7 +2780,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>178</v>
       </c>
@@ -2796,7 +2803,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>178</v>
       </c>
@@ -2819,7 +2826,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -2842,7 +2849,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>178</v>
       </c>
@@ -2865,7 +2872,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>178</v>
       </c>
@@ -2889,6 +2896,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/ARCProject/ArcTest.xlsx
+++ b/ARCProject/ArcTest.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="213">
   <si>
     <t>Project Name</t>
   </si>
@@ -662,6 +662,12 @@
   </si>
   <si>
     <t>US Building Other 775828</t>
+  </si>
+  <si>
+    <t>US Building None 718329</t>
+  </si>
+  <si>
+    <t>US Building None 648107</t>
   </si>
 </sst>
 </file>
@@ -1337,7 +1343,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>

--- a/ARCProject/ArcTest.xlsx
+++ b/ARCProject/ArcTest.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView windowHeight="6120" windowWidth="14790" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="6120"/>
   </bookViews>
   <sheets>
-    <sheet name="NewBuildingProject" r:id="rId1" sheetId="1"/>
-    <sheet name="BTeam" r:id="rId2" sheetId="10"/>
-    <sheet name="NewCityProject" r:id="rId3" sheetId="5"/>
-    <sheet name="NewCommunityProject" r:id="rId4" sheetId="6"/>
-    <sheet name="Payment" r:id="rId5" sheetId="2"/>
-    <sheet name="Login" r:id="rId6" sheetId="3"/>
-    <sheet name="Add Meter" r:id="rId7" sheetId="4"/>
-    <sheet name="BEnergy" r:id="rId8" sheetId="7"/>
-    <sheet name="BWater" r:id="rId9" sheetId="8"/>
-    <sheet name="BWaste" r:id="rId10" sheetId="9"/>
+    <sheet name="NewBuildingProject" sheetId="1" r:id="rId1"/>
+    <sheet name="BTeam" sheetId="10" r:id="rId2"/>
+    <sheet name="NewCityProject" sheetId="5" r:id="rId3"/>
+    <sheet name="NewCommunityProject" sheetId="6" r:id="rId4"/>
+    <sheet name="Payment" sheetId="2" r:id="rId5"/>
+    <sheet name="Login" sheetId="3" r:id="rId6"/>
+    <sheet name="Add Meter" sheetId="4" r:id="rId7"/>
+    <sheet name="BEnergy" sheetId="7" r:id="rId8"/>
+    <sheet name="BWater" sheetId="8" r:id="rId9"/>
+    <sheet name="BWaste" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:G18"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="211">
   <si>
     <t>Project Name</t>
   </si>
@@ -244,9 +244,6 @@
     <t>2015-06-16</t>
   </si>
   <si>
-    <t>Building Other</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
@@ -658,23 +655,19 @@
     <t>98734</t>
   </si>
   <si>
-    <t>US Building Other 392105</t>
-  </si>
-  <si>
     <t>US Building Other 775828</t>
   </si>
   <si>
-    <t>US Building None 718329</t>
-  </si>
-  <si>
-    <t>US Building None 648107</t>
+    <t>Above ground</t>
+  </si>
+  <si>
+    <t>is_station2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -720,27 +713,27 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="15" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -757,10 +750,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -795,7 +788,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -830,7 +823,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -924,21 +917,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -955,7 +948,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1007,46 +1000,47 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="24.06640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="9" max="9" style="2" width="9.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="14" max="14" style="2" width="9.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="5" width="12.140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.140625" style="2" collapsed="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.140625" style="2" collapsed="1"/>
+    <col min="15" max="15" width="12.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.42578125" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="15.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +1051,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -1096,39 +1090,42 @@
         <v>46</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -1143,10 +1140,10 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="H2" t="s">
         <v>61</v>
@@ -1164,25 +1161,25 @@
         <v>61</v>
       </c>
       <c r="M2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z2" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="Y2" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA2" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -1223,25 +1220,28 @@
         <v>45</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P3" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q3" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -1278,137 +1278,137 @@
       <c r="N4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="W4" s="7" t="s">
+      <c r="X4" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
         <v>72</v>
       </c>
-      <c r="D5" t="s">
-        <v>73</v>
-      </c>
       <c r="E5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" t="s">
         <v>75</v>
-      </c>
-      <c r="F5" t="s">
-        <v>76</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="Y5" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>83</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>212</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
         <v>85</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>86</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>87</v>
-      </c>
-      <c r="F6" t="s">
-        <v>88</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="X6" s="4" t="s">
+      <c r="Y6" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z6" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="Y6" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>195</v>
+      <c r="AA6" s="4" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G3"/>
-    <hyperlink r:id="rId2" ref="G4"/>
-    <hyperlink r:id="rId3" ref="G5"/>
-    <hyperlink r:id="rId4" ref="G6"/>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
+    <hyperlink ref="G6" r:id="rId4"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="F6" sqref="A6:XFD6"/>
@@ -1416,218 +1416,218 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" t="s">
         <v>165</v>
       </c>
-      <c r="B1" t="s">
-        <v>166</v>
-      </c>
       <c r="C1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" t="s">
         <v>179</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>180</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>181</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>182</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>183</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="I1" t="s">
-        <v>187</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="H2" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row customFormat="1" r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="J2" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="G3" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="I3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row customFormat="1" r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="G4" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="I4" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row customFormat="1" r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="G5" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="I5" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row customFormat="1" r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="G6" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="I6" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row customFormat="1" r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>190</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1635,54 +1635,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
-    <hyperlink r:id="rId3" ref="A4"/>
-    <hyperlink r:id="rId4" ref="A5"/>
-    <hyperlink r:id="rId5" ref="A6"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -1690,15 +1690,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="11" max="12" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="14.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -1727,7 +1727,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -1774,149 +1774,149 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" t="s">
         <v>95</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>97</v>
       </c>
-      <c r="C2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>98</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="G2" t="s">
         <v>61</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" t="s">
         <v>103</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>104</v>
-      </c>
-      <c r="K2" t="s">
-        <v>105</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
       </c>
       <c r="M2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
         <v>108</v>
-      </c>
-      <c r="B3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" t="s">
-        <v>109</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" t="s">
         <v>111</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>112</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M3" t="s">
         <v>113</v>
       </c>
-      <c r="L3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="N3" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
         <v>116</v>
       </c>
-      <c r="B4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>117</v>
-      </c>
-      <c r="E4" t="s">
-        <v>118</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" t="s">
         <v>120</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>121</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M4" t="s">
         <v>122</v>
       </c>
-      <c r="L4" t="s">
-        <v>92</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="N4" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F2"/>
-    <hyperlink r:id="rId2" ref="F3"/>
-    <hyperlink r:id="rId3" ref="F4"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
@@ -1924,19 +1924,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="11" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -1965,7 +1965,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -1996,63 +1996,63 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" t="s">
         <v>125</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>126</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
         <v>127</v>
       </c>
-      <c r="D2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" t="s">
         <v>130</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" t="s">
         <v>131</v>
       </c>
-      <c r="K2" t="s">
-        <v>122</v>
-      </c>
-      <c r="L2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>39</v>
@@ -2061,84 +2061,84 @@
         <v>61</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J3" t="s">
         <v>136</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>137</v>
-      </c>
-      <c r="K3" t="s">
-        <v>138</v>
       </c>
       <c r="L3" t="s">
         <v>61</v>
       </c>
       <c r="M3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
         <v>140</v>
       </c>
-      <c r="B4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>141</v>
-      </c>
-      <c r="E4" t="s">
-        <v>142</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" t="s">
         <v>144</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>145</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" t="s">
         <v>146</v>
       </c>
-      <c r="L4" t="s">
-        <v>80</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="N4" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F2"/>
-    <hyperlink r:id="rId2" ref="F3"/>
-    <hyperlink r:id="rId3" ref="F4"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
@@ -2146,32 +2146,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="3" max="5" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="1" max="2" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" t="s">
         <v>156</v>
       </c>
-      <c r="B1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C1" t="s">
-        <v>157</v>
-      </c>
       <c r="D1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F1" t="s">
         <v>19</v>
@@ -2198,24 +2198,24 @@
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row customFormat="1" r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" t="s">
         <v>200</v>
       </c>
-      <c r="B2" t="s">
-        <v>201</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -2227,39 +2227,39 @@
         <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J2" t="s">
         <v>61</v>
       </c>
       <c r="K2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row customFormat="1" r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" t="s">
         <v>200</v>
       </c>
-      <c r="B3" t="s">
-        <v>201</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -2271,39 +2271,39 @@
         <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J3" t="s">
         <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row customFormat="1" r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" t="s">
         <v>200</v>
       </c>
-      <c r="B4" t="s">
-        <v>201</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -2315,39 +2315,39 @@
         <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J4" t="s">
         <v>61</v>
       </c>
       <c r="K4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row customFormat="1" r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" t="s">
         <v>200</v>
       </c>
-      <c r="B5" t="s">
-        <v>201</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -2359,39 +2359,39 @@
         <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J5" t="s">
         <v>61</v>
       </c>
       <c r="K5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row customFormat="1" r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" t="s">
         <v>200</v>
       </c>
-      <c r="B6" t="s">
-        <v>201</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -2403,40 +2403,40 @@
         <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J6" t="s">
         <v>61</v>
       </c>
       <c r="K6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G2"/>
-    <hyperlink r:id="rId2" ref="G3"/>
-    <hyperlink r:id="rId3" ref="G4"/>
-    <hyperlink r:id="rId4" ref="G5"/>
-    <hyperlink r:id="rId5" ref="G6"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -2444,12 +2444,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="1" max="1" width="19.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B1" t="s">
         <v>25</v>
@@ -2457,52 +2457,52 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" t="s">
         <v>154</v>
       </c>
-      <c r="B2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row customFormat="1" r="3" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" t="s">
         <v>154</v>
       </c>
-      <c r="B3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row customFormat="1" r="4" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" t="s">
         <v>154</v>
       </c>
-      <c r="B4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row customFormat="1" r="5" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" t="s">
         <v>154</v>
       </c>
-      <c r="B5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row customFormat="1" r="6" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" t="s">
         <v>154</v>
       </c>
-      <c r="B6" t="s">
-        <v>155</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -2510,8 +2510,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="1" max="1" width="14" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2522,7 +2522,7 @@
         <v>29</v>
       </c>
     </row>
-    <row customFormat="1" r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customFormat="1" r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customFormat="1" r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customFormat="1" r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customFormat="1" r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2563,190 +2563,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row customFormat="1" r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row customFormat="1" r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row customFormat="1" r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row customFormat="1" r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row customFormat="1" r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2755,12 +2578,189 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2768,140 +2768,140 @@
         <v>27</v>
       </c>
       <c r="B1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" t="s">
         <v>165</v>
       </c>
-      <c r="C1" t="s">
-        <v>166</v>
-      </c>
       <c r="D1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" t="s">
         <v>174</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>175</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>176</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row customFormat="1" r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>178</v>
-      </c>
       <c r="B2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row customFormat="1" r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row customFormat="1" r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row customFormat="1" r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row customFormat="1" r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>173</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ARCProject/ArcTest.xlsx
+++ b/ARCProject/ArcTest.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="6120"/>
+    <workbookView windowHeight="6120" windowWidth="14790" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="NewBuildingProject" sheetId="1" r:id="rId1"/>
-    <sheet name="BTeam" sheetId="10" r:id="rId2"/>
-    <sheet name="NewCityProject" sheetId="5" r:id="rId3"/>
-    <sheet name="NewCommunityProject" sheetId="6" r:id="rId4"/>
-    <sheet name="Payment" sheetId="2" r:id="rId5"/>
-    <sheet name="Login" sheetId="3" r:id="rId6"/>
-    <sheet name="Add Meter" sheetId="4" r:id="rId7"/>
-    <sheet name="BEnergy" sheetId="7" r:id="rId8"/>
-    <sheet name="BWater" sheetId="8" r:id="rId9"/>
-    <sheet name="BWaste" sheetId="9" r:id="rId10"/>
+    <sheet name="NewBuildingProject" r:id="rId1" sheetId="1"/>
+    <sheet name="BTeam" r:id="rId2" sheetId="10"/>
+    <sheet name="NewCityProject" r:id="rId3" sheetId="5"/>
+    <sheet name="NewCommunityProject" r:id="rId4" sheetId="6"/>
+    <sheet name="Payment" r:id="rId5" sheetId="2"/>
+    <sheet name="Login" r:id="rId6" sheetId="3"/>
+    <sheet name="Add Meter" r:id="rId7" sheetId="4"/>
+    <sheet name="BEnergy" r:id="rId8" sheetId="7"/>
+    <sheet name="BWater" r:id="rId9" sheetId="8"/>
+    <sheet name="BWaste" r:id="rId10" sheetId="9"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:G18"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="216">
   <si>
     <t>Project Name</t>
   </si>
@@ -662,12 +662,28 @@
   </si>
   <si>
     <t>is_station2</t>
+  </si>
+  <si>
+    <t>US Building AbovegroundTestProject 186417</t>
+  </si>
+  <si>
+    <t>US Building AbovegroundTestProject 329663</t>
+  </si>
+  <si>
+    <t>US Building AbovegroundTestProject 478172</t>
+  </si>
+  <si>
+    <t>US Building Aboveground 535530</t>
+  </si>
+  <si>
+    <t>US Building AbovegroundTestProject 10423</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -713,27 +729,27 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="15" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -750,10 +766,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -788,7 +804,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -823,7 +839,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -917,21 +933,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -948,7 +964,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1000,15 +1016,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <selection activeCell="S8" sqref="S8"/>
@@ -1016,28 +1032,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.140625" style="2" collapsed="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.140625" style="2" collapsed="1"/>
-    <col min="15" max="15" width="12.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.42578125" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="41.078125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="9" max="9" style="2" width="9.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="14" max="14" style="2" width="9.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="5" width="12.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
@@ -1181,7 +1197,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>215</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1343,7 +1359,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1396,19 +1412,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1"/>
-    <hyperlink ref="G4" r:id="rId2"/>
-    <hyperlink ref="G5" r:id="rId3"/>
-    <hyperlink ref="G6" r:id="rId4"/>
+    <hyperlink r:id="rId1" ref="G3"/>
+    <hyperlink r:id="rId2" ref="G4"/>
+    <hyperlink r:id="rId3" ref="G5"/>
+    <hyperlink r:id="rId4" ref="G6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="F6" sqref="A6:XFD6"/>
@@ -1416,16 +1432,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1460,7 +1476,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>167</v>
       </c>
@@ -1492,7 +1508,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>167</v>
       </c>
@@ -1524,7 +1540,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>167</v>
       </c>
@@ -1556,7 +1572,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>167</v>
       </c>
@@ -1588,7 +1604,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>167</v>
       </c>
@@ -1621,13 +1637,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1635,7 +1651,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -1670,19 +1686,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink r:id="rId2" ref="A3"/>
+    <hyperlink r:id="rId3" ref="A4"/>
+    <hyperlink r:id="rId4" ref="A5"/>
+    <hyperlink r:id="rId5" ref="A6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -1690,15 +1706,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -1906,17 +1922,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink r:id="rId1" ref="F2"/>
+    <hyperlink r:id="rId2" ref="F3"/>
+    <hyperlink r:id="rId3" ref="F4"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
@@ -1924,19 +1940,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -2128,17 +2144,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink r:id="rId1" ref="F2"/>
+    <hyperlink r:id="rId2" ref="F3"/>
+    <hyperlink r:id="rId3" ref="F4"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
@@ -2146,15 +2162,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="3" max="5" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2201,7 +2217,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -2245,7 +2261,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>199</v>
       </c>
@@ -2289,7 +2305,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>199</v>
       </c>
@@ -2333,7 +2349,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>199</v>
       </c>
@@ -2377,7 +2393,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>199</v>
       </c>
@@ -2423,20 +2439,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
-    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink r:id="rId1" ref="G2"/>
+    <hyperlink r:id="rId2" ref="G3"/>
+    <hyperlink r:id="rId3" ref="G4"/>
+    <hyperlink r:id="rId4" ref="G5"/>
+    <hyperlink r:id="rId5" ref="G6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -2444,7 +2460,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2463,7 +2479,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>153</v>
       </c>
@@ -2471,7 +2487,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>153</v>
       </c>
@@ -2479,7 +2495,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>153</v>
       </c>
@@ -2487,7 +2503,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>153</v>
       </c>
@@ -2496,13 +2512,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -2510,8 +2526,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2522,7 +2538,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -2530,7 +2546,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2538,7 +2554,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -2546,7 +2562,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2554,7 +2570,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2563,13 +2579,190 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row customFormat="1" r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row customFormat="1" r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row customFormat="1" r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row customFormat="1" r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2578,189 +2771,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2786,7 +2802,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>177</v>
       </c>
@@ -2809,7 +2825,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>177</v>
       </c>
@@ -2832,7 +2848,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>177</v>
       </c>
@@ -2855,7 +2871,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>177</v>
       </c>
@@ -2878,7 +2894,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>177</v>
       </c>
@@ -2902,6 +2918,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/ARCProject/ArcTest.xlsx
+++ b/ARCProject/ArcTest.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView windowHeight="6120" windowWidth="14790" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="6120" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="NewBuildingProject" r:id="rId1" sheetId="1"/>
-    <sheet name="BTeam" r:id="rId2" sheetId="10"/>
-    <sheet name="NewCityProject" r:id="rId3" sheetId="5"/>
-    <sheet name="NewCommunityProject" r:id="rId4" sheetId="6"/>
-    <sheet name="Payment" r:id="rId5" sheetId="2"/>
-    <sheet name="Login" r:id="rId6" sheetId="3"/>
-    <sheet name="Add Meter" r:id="rId7" sheetId="4"/>
-    <sheet name="BEnergy" r:id="rId8" sheetId="7"/>
-    <sheet name="BWater" r:id="rId9" sheetId="8"/>
-    <sheet name="BWaste" r:id="rId10" sheetId="9"/>
+    <sheet name="NewBuildingProject" sheetId="1" r:id="rId1"/>
+    <sheet name="BTeam" sheetId="10" r:id="rId2"/>
+    <sheet name="NewCityProject" sheetId="5" r:id="rId3"/>
+    <sheet name="NewCommunityProject" sheetId="6" r:id="rId4"/>
+    <sheet name="Payment" sheetId="2" r:id="rId5"/>
+    <sheet name="Login" sheetId="3" r:id="rId6"/>
+    <sheet name="Add Meter" sheetId="4" r:id="rId7"/>
+    <sheet name="BEnergy" sheetId="7" r:id="rId8"/>
+    <sheet name="BWater" sheetId="8" r:id="rId9"/>
+    <sheet name="BWaste" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G18"/>
+  <oleSize ref="G1:R18"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="215">
   <si>
     <t>Project Name</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Government Use: Local, City</t>
   </si>
   <si>
-    <t>India</t>
-  </si>
-  <si>
     <t>314 Nehru Street</t>
   </si>
   <si>
@@ -313,9 +310,6 @@
     <t>66617</t>
   </si>
   <si>
-    <t>City LEED for Cities</t>
-  </si>
-  <si>
     <t>LEED for Cities</t>
   </si>
   <si>
@@ -328,39 +322,18 @@
     <t>R &amp; D Architects</t>
   </si>
   <si>
-    <t>suarav.mc@gmail.com</t>
-  </si>
-  <si>
-    <t>56000</t>
-  </si>
-  <si>
     <t>Population</t>
   </si>
   <si>
     <t>176000</t>
   </si>
   <si>
-    <t>312 Sweet Street</t>
-  </si>
-  <si>
-    <t>Jaipur</t>
-  </si>
-  <si>
-    <t>Rajasthan</t>
-  </si>
-  <si>
-    <t>562120</t>
-  </si>
-  <si>
     <t>City Other</t>
   </si>
   <si>
     <t>A &amp; A Dealers</t>
   </si>
   <si>
-    <t>45000</t>
-  </si>
-  <si>
     <t>23968</t>
   </si>
   <si>
@@ -385,9 +358,6 @@
     <t>V Architecture</t>
   </si>
   <si>
-    <t>33882</t>
-  </si>
-  <si>
     <t>17899</t>
   </si>
   <si>
@@ -664,26 +634,52 @@
     <t>is_station2</t>
   </si>
   <si>
-    <t>US Building AbovegroundTestProject 186417</t>
-  </si>
-  <si>
-    <t>US Building AbovegroundTestProject 329663</t>
-  </si>
-  <si>
-    <t>US Building AbovegroundTestProject 478172</t>
-  </si>
-  <si>
-    <t>US Building Aboveground 535530</t>
-  </si>
-  <si>
-    <t>US Building AbovegroundTestProject 10423</t>
+    <t>ProjectName</t>
+  </si>
+  <si>
+    <t>ProjectType</t>
+  </si>
+  <si>
+    <t>RatingSystem</t>
+  </si>
+  <si>
+    <t>OwnerType</t>
+  </si>
+  <si>
+    <t>OwnerOrganization</t>
+  </si>
+  <si>
+    <t>OwnerEmail</t>
+  </si>
+  <si>
+    <t>LEEDCitiesTestProject 161386</t>
+  </si>
+  <si>
+    <t>OwnerCountry</t>
+  </si>
+  <si>
+    <t>5600</t>
+  </si>
+  <si>
+    <t>4500</t>
+  </si>
+  <si>
+    <t>3388</t>
+  </si>
+  <si>
+    <t>56211</t>
+  </si>
+  <si>
+    <t>312 Wilson Street</t>
+  </si>
+  <si>
+    <t>Chicago</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -729,27 +725,27 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="15" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -766,10 +762,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -804,7 +800,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -839,7 +835,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -933,21 +929,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -964,7 +960,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1016,44 +1012,44 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="41.078125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="9" max="9" style="2" width="9.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="14" max="14" style="2" width="9.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="5" width="12.140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.140625" style="2" collapsed="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.140625" style="2" collapsed="1"/>
+    <col min="15" max="15" width="12.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.42578125" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="15.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
@@ -1067,7 +1063,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -1100,48 +1096,48 @@
         <v>12</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -1150,281 +1146,281 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M2" t="s">
-        <v>150</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="Y2" s="4" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>37</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" t="s">
         <v>39</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" t="s">
         <v>41</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>42</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>43</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>44</v>
       </c>
-      <c r="M3" t="s">
-        <v>45</v>
-      </c>
       <c r="N3" s="3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="P3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="Q3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
         <v>58</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>59</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="J4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M4" t="s">
-        <v>63</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="V4" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X4" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
         <v>71</v>
       </c>
-      <c r="D5" t="s">
-        <v>72</v>
-      </c>
       <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" t="s">
         <v>74</v>
       </c>
-      <c r="F5" t="s">
-        <v>75</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="Y5" s="4" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
         <v>84</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>85</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>86</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
         <v>87</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="Y6" s="4" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G3"/>
-    <hyperlink r:id="rId2" ref="G4"/>
-    <hyperlink r:id="rId3" ref="G5"/>
-    <hyperlink r:id="rId4" ref="G6"/>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
+    <hyperlink ref="G6" r:id="rId4"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="F6" sqref="A6:XFD6"/>
@@ -1432,218 +1428,218 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J2" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row customFormat="1" r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row customFormat="1" r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row customFormat="1" r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row customFormat="1" r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row customFormat="1" r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1651,99 +1647,99 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
-    <hyperlink r:id="rId3" ref="A4"/>
-    <hyperlink r:id="rId4" ref="A5"/>
-    <hyperlink r:id="rId5" ref="A6"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="11" max="12" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="14.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>203</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>204</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>205</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>206</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>208</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -1761,178 +1757,179 @@
         <v>12</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" t="s">
         <v>94</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
         <v>96</v>
       </c>
-      <c r="C2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="J2" t="s">
-        <v>103</v>
+        <v>213</v>
       </c>
       <c r="K2" t="s">
-        <v>104</v>
+        <v>214</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>106</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>109</v>
+        <v>210</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="J3" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="K3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="L3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="J4" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K4" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="L4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F2"/>
-    <hyperlink r:id="rId2" ref="F3"/>
-    <hyperlink r:id="rId3" ref="F4"/>
+    <hyperlink ref="F4" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="F3" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
@@ -1940,19 +1937,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="11" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -1981,7 +1978,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -1999,7 +1996,7 @@
         <v>12</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -2012,188 +2009,188 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="J2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" t="s">
         <v>121</v>
       </c>
-      <c r="L2" t="s">
-        <v>91</v>
-      </c>
-      <c r="M2" t="s">
-        <v>131</v>
-      </c>
       <c r="N2" s="4" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="J3" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="K3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="K4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="L4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F2"/>
-    <hyperlink r:id="rId2" ref="F3"/>
-    <hyperlink r:id="rId3" ref="F4"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="3" max="5" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="1" max="2" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
@@ -2211,248 +2208,248 @@
         <v>12</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row customFormat="1" r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
       <c r="I2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row customFormat="1" r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
       <c r="I3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row customFormat="1" r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
       <c r="I4" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row customFormat="1" r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" t="s">
         <v>22</v>
       </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
       <c r="I5" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row customFormat="1" r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" t="s">
         <v>22</v>
       </c>
-      <c r="H6" t="s">
-        <v>23</v>
-      </c>
       <c r="I6" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G2"/>
-    <hyperlink r:id="rId2" ref="G3"/>
-    <hyperlink r:id="rId3" ref="G4"/>
-    <hyperlink r:id="rId4" ref="G5"/>
-    <hyperlink r:id="rId5" ref="G6"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -2460,65 +2457,65 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="1" max="1" width="19.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row customFormat="1" r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row customFormat="1" r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row customFormat="1" r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row customFormat="1" r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -2526,243 +2523,66 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="1" max="1" width="14" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row customFormat="1" r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row customFormat="1" r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row customFormat="1" r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row customFormat="1" r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row customFormat="1" r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row customFormat="1" r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row customFormat="1" r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row customFormat="1" r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row customFormat="1" r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row customFormat="1" r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2771,153 +2591,330 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" t="s">
         <v>164</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>165</v>
       </c>
-      <c r="D1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F1" t="s">
-        <v>175</v>
-      </c>
       <c r="G1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row customFormat="1" r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row customFormat="1" r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>177</v>
-      </c>
       <c r="B3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row customFormat="1" r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>177</v>
-      </c>
       <c r="B4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row customFormat="1" r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>177</v>
-      </c>
       <c r="B5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row customFormat="1" r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>177</v>
-      </c>
       <c r="B6" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ARCProject/ArcTest.xlsx
+++ b/ARCProject/ArcTest.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="6120" firstSheet="2" activeTab="2"/>
+    <workbookView activeTab="9" firstSheet="5" windowHeight="6120" windowWidth="14790" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="NewBuildingProject" sheetId="1" r:id="rId1"/>
-    <sheet name="BTeam" sheetId="10" r:id="rId2"/>
-    <sheet name="NewCityProject" sheetId="5" r:id="rId3"/>
-    <sheet name="NewCommunityProject" sheetId="6" r:id="rId4"/>
-    <sheet name="Payment" sheetId="2" r:id="rId5"/>
-    <sheet name="Login" sheetId="3" r:id="rId6"/>
-    <sheet name="Add Meter" sheetId="4" r:id="rId7"/>
-    <sheet name="BEnergy" sheetId="7" r:id="rId8"/>
-    <sheet name="BWater" sheetId="8" r:id="rId9"/>
-    <sheet name="BWaste" sheetId="9" r:id="rId10"/>
+    <sheet name="NewBuildingProject" r:id="rId1" sheetId="1"/>
+    <sheet name="BTeam" r:id="rId2" sheetId="10"/>
+    <sheet name="NewCityProject" r:id="rId3" sheetId="5"/>
+    <sheet name="NewCommunityProject" r:id="rId4" sheetId="6"/>
+    <sheet name="Payment" r:id="rId5" sheetId="2"/>
+    <sheet name="Login" r:id="rId6" sheetId="3"/>
+    <sheet name="Add Meter" r:id="rId7" sheetId="4"/>
+    <sheet name="BEnergy" r:id="rId8" sheetId="7"/>
+    <sheet name="BWater" r:id="rId9" sheetId="8"/>
+    <sheet name="BWaste" r:id="rId10" sheetId="9"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="G1:R18"/>
+  <oleSize ref="F1:R18"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="217">
   <si>
     <t>Project Name</t>
   </si>
@@ -349,9 +349,6 @@
     <t>33176</t>
   </si>
   <si>
-    <t>City None</t>
-  </si>
-  <si>
     <t>Religious</t>
   </si>
   <si>
@@ -674,12 +671,22 @@
   </si>
   <si>
     <t>Chicago</t>
+  </si>
+  <si>
+    <t>LEEDCitiesTestProject 17430</t>
+  </si>
+  <si>
+    <t>LEEDCitiesTestProject 582388</t>
+  </si>
+  <si>
+    <t>LEEDCitiesTestProject 11092</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -725,27 +732,27 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="15" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -762,10 +769,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -800,7 +807,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -835,7 +842,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -929,21 +936,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -960,7 +967,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1012,15 +1019,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
@@ -1028,28 +1035,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.140625" style="2" collapsed="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.140625" style="2" collapsed="1"/>
-    <col min="15" max="15" width="12.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.42578125" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="9" max="9" style="2" width="9.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="14" max="14" style="2" width="9.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="5" width="12.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
@@ -1102,7 +1109,7 @@
         <v>45</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>47</v>
@@ -1126,18 +1133,18 @@
         <v>68</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -1152,10 +1159,10 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="H2" t="s">
         <v>60</v>
@@ -1173,22 +1180,22 @@
         <v>60</v>
       </c>
       <c r="M2" t="s">
+        <v>139</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>33</v>
       </c>
       <c r="Y2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z2" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="Z2" s="4" t="s">
-        <v>184</v>
-      </c>
       <c r="AA2" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
@@ -1232,10 +1239,10 @@
         <v>44</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q3" t="s">
         <v>46</v>
@@ -1302,7 +1309,7 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1344,13 +1351,13 @@
         <v>81</v>
       </c>
       <c r="Y5" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z5" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="Z5" s="4" t="s">
-        <v>184</v>
-      </c>
       <c r="AA5" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
@@ -1397,249 +1404,249 @@
         <v>92</v>
       </c>
       <c r="Y6" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z6" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="Z6" s="4" t="s">
-        <v>184</v>
-      </c>
       <c r="AA6" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1"/>
-    <hyperlink ref="G4" r:id="rId2"/>
-    <hyperlink ref="G5" r:id="rId3"/>
-    <hyperlink ref="G6" r:id="rId4"/>
+    <hyperlink r:id="rId1" ref="G3"/>
+    <hyperlink r:id="rId2" ref="G4"/>
+    <hyperlink r:id="rId3" ref="G5"/>
+    <hyperlink r:id="rId4" ref="G6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="F6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" t="s">
         <v>154</v>
       </c>
-      <c r="B1" t="s">
-        <v>155</v>
-      </c>
       <c r="C1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" t="s">
         <v>168</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>169</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>170</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>171</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>172</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="I1" t="s">
-        <v>176</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="H2" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="J2" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row customFormat="1" r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="G3" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="I3" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    </row>
+    <row customFormat="1" r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="G4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="I4" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    </row>
+    <row customFormat="1" r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="G5" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="I5" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    </row>
+    <row customFormat="1" r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="G6" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="I6" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>179</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1647,93 +1654,93 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink r:id="rId2" ref="A3"/>
+    <hyperlink r:id="rId3" ref="A4"/>
+    <hyperlink r:id="rId4" ref="A5"/>
+    <hyperlink r:id="rId5" ref="A6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" t="s">
         <v>201</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>202</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>203</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>204</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>205</v>
       </c>
-      <c r="F1" t="s">
-        <v>206</v>
-      </c>
       <c r="G1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
@@ -1786,7 +1793,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
         <v>94</v>
@@ -1807,25 +1814,25 @@
         <v>60</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>98</v>
       </c>
       <c r="J2" t="s">
+        <v>212</v>
+      </c>
+      <c r="K2" t="s">
         <v>213</v>
-      </c>
-      <c r="K2" t="s">
-        <v>214</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -1851,7 +1858,7 @@
         <v>78</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>101</v>
@@ -1874,7 +1881,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>216</v>
       </c>
       <c r="B4" t="s">
         <v>94</v>
@@ -1883,10 +1890,10 @@
         <v>83</v>
       </c>
       <c r="D4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" t="s">
         <v>107</v>
-      </c>
-      <c r="E4" t="s">
-        <v>108</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>17</v>
@@ -1895,41 +1902,41 @@
         <v>90</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" t="s">
         <v>109</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>110</v>
-      </c>
-      <c r="K4" t="s">
-        <v>111</v>
       </c>
       <c r="L4" t="s">
         <v>90</v>
       </c>
       <c r="M4" t="s">
+        <v>111</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="F3" r:id="rId3"/>
+    <hyperlink r:id="rId1" ref="F4"/>
+    <hyperlink r:id="rId2" ref="F2"/>
+    <hyperlink r:id="rId3" ref="F3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
@@ -1937,19 +1944,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -2009,19 +2016,19 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
         <v>114</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>115</v>
-      </c>
-      <c r="C2" t="s">
-        <v>116</v>
       </c>
       <c r="D2" t="s">
         <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>75</v>
@@ -2030,33 +2037,33 @@
         <v>90</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" t="s">
         <v>119</v>
       </c>
-      <c r="J2" t="s">
-        <v>120</v>
-      </c>
       <c r="K2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L2" t="s">
         <v>90</v>
       </c>
       <c r="M2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
         <v>70</v>
@@ -2065,7 +2072,7 @@
         <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>38</v>
@@ -2074,42 +2081,42 @@
         <v>60</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" t="s">
         <v>125</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>126</v>
-      </c>
-      <c r="K3" t="s">
-        <v>127</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
       </c>
       <c r="M3" t="s">
+        <v>126</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
         <v>83</v>
       </c>
       <c r="D4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" t="s">
         <v>130</v>
-      </c>
-      <c r="E4" t="s">
-        <v>131</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>17</v>
@@ -2118,73 +2125,73 @@
         <v>78</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" t="s">
         <v>133</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>134</v>
-      </c>
-      <c r="K4" t="s">
-        <v>135</v>
       </c>
       <c r="L4" t="s">
         <v>78</v>
       </c>
       <c r="M4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink r:id="rId1" ref="F2"/>
+    <hyperlink r:id="rId2" ref="F3"/>
+    <hyperlink r:id="rId3" ref="F4"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="3" max="5" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" t="s">
         <v>145</v>
       </c>
-      <c r="B1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C1" t="s">
-        <v>146</v>
-      </c>
       <c r="D1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F1" t="s">
         <v>18</v>
@@ -2211,24 +2218,24 @@
         <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" t="s">
         <v>189</v>
       </c>
-      <c r="B2" t="s">
-        <v>190</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -2240,39 +2247,39 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J2" t="s">
         <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row customFormat="1" r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" t="s">
         <v>189</v>
       </c>
-      <c r="B3" t="s">
-        <v>190</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -2284,39 +2291,39 @@
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J3" t="s">
         <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row customFormat="1" r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" t="s">
         <v>189</v>
       </c>
-      <c r="B4" t="s">
-        <v>190</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -2328,39 +2335,39 @@
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J4" t="s">
         <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row customFormat="1" r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" t="s">
         <v>189</v>
       </c>
-      <c r="B5" t="s">
-        <v>190</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -2372,39 +2379,39 @@
         <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J5" t="s">
         <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row customFormat="1" r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" t="s">
         <v>189</v>
       </c>
-      <c r="B6" t="s">
-        <v>190</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -2416,40 +2423,40 @@
         <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J6" t="s">
         <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
-    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink r:id="rId1" ref="G2"/>
+    <hyperlink r:id="rId2" ref="G3"/>
+    <hyperlink r:id="rId3" ref="G4"/>
+    <hyperlink r:id="rId4" ref="G5"/>
+    <hyperlink r:id="rId5" ref="G6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -2457,12 +2464,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
@@ -2470,52 +2477,52 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" t="s">
         <v>143</v>
       </c>
-      <c r="B2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" t="s">
         <v>143</v>
       </c>
-      <c r="B3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s">
         <v>143</v>
       </c>
-      <c r="B4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" t="s">
         <v>143</v>
       </c>
-      <c r="B5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" t="s">
         <v>143</v>
       </c>
-      <c r="B6" t="s">
-        <v>144</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -2523,8 +2530,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2535,7 +2542,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2543,7 +2550,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -2551,7 +2558,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -2559,7 +2566,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -2567,7 +2574,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -2576,13 +2583,190 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row customFormat="1" r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row customFormat="1" r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row customFormat="1" r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row customFormat="1" r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2591,189 +2775,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2781,140 +2788,140 @@
         <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
         <v>154</v>
       </c>
-      <c r="C1" t="s">
-        <v>155</v>
-      </c>
       <c r="D1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" t="s">
         <v>163</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>164</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>165</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row customFormat="1" r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>167</v>
-      </c>
       <c r="B2" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>162</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/ARCProject/ArcTest.xlsx
+++ b/ARCProject/ArcTest.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView activeTab="9" firstSheet="5" windowHeight="6120" windowWidth="14790" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="6120" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="NewBuildingProject" r:id="rId1" sheetId="1"/>
-    <sheet name="BTeam" r:id="rId2" sheetId="10"/>
-    <sheet name="NewCityProject" r:id="rId3" sheetId="5"/>
-    <sheet name="NewCommunityProject" r:id="rId4" sheetId="6"/>
-    <sheet name="Payment" r:id="rId5" sheetId="2"/>
-    <sheet name="Login" r:id="rId6" sheetId="3"/>
-    <sheet name="Add Meter" r:id="rId7" sheetId="4"/>
-    <sheet name="BEnergy" r:id="rId8" sheetId="7"/>
-    <sheet name="BWater" r:id="rId9" sheetId="8"/>
-    <sheet name="BWaste" r:id="rId10" sheetId="9"/>
+    <sheet name="NewBuildingProject" sheetId="1" r:id="rId1"/>
+    <sheet name="BTeam" sheetId="10" r:id="rId2"/>
+    <sheet name="NewCityProject" sheetId="5" r:id="rId3"/>
+    <sheet name="NewCommunityProject" sheetId="6" r:id="rId4"/>
+    <sheet name="Payment" sheetId="2" r:id="rId5"/>
+    <sheet name="Login" sheetId="3" r:id="rId6"/>
+    <sheet name="Add Meter" sheetId="4" r:id="rId7"/>
+    <sheet name="BEnergy" sheetId="7" r:id="rId8"/>
+    <sheet name="BWater" sheetId="8" r:id="rId9"/>
+    <sheet name="BWaste" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="F1:R18"/>
+  <oleSize ref="A1:F18"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="219">
   <si>
     <t>Project Name</t>
   </si>
@@ -673,20 +673,25 @@
     <t>Chicago</t>
   </si>
   <si>
-    <t>LEEDCitiesTestProject 17430</t>
-  </si>
-  <si>
-    <t>LEEDCitiesTestProject 582388</t>
-  </si>
-  <si>
     <t>LEEDCitiesTestProject 11092</t>
+  </si>
+  <si>
+    <t>editArea</t>
+  </si>
+  <si>
+    <t>editPopulation</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>18000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -732,27 +737,27 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="15" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -769,10 +774,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -807,7 +812,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -842,7 +847,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -936,21 +941,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -967,7 +972,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1019,15 +1024,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
@@ -1035,28 +1040,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="9" max="9" style="2" width="9.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="14" max="14" style="2" width="9.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="5" width="12.140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.140625" style="2" collapsed="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.140625" style="2" collapsed="1"/>
+    <col min="15" max="15" width="12.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="15.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
@@ -1415,36 +1419,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G3"/>
-    <hyperlink r:id="rId2" ref="G4"/>
-    <hyperlink r:id="rId3" ref="G5"/>
-    <hyperlink r:id="rId4" ref="G6"/>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
+    <hyperlink ref="G6" r:id="rId4"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="F6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1479,7 +1483,7 @@
         <v>176</v>
       </c>
     </row>
-    <row customFormat="1" r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>156</v>
       </c>
@@ -1511,7 +1515,7 @@
         <v>178</v>
       </c>
     </row>
-    <row customFormat="1" r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>156</v>
       </c>
@@ -1543,7 +1547,7 @@
         <v>178</v>
       </c>
     </row>
-    <row customFormat="1" r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>156</v>
       </c>
@@ -1575,7 +1579,7 @@
         <v>178</v>
       </c>
     </row>
-    <row customFormat="1" r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>156</v>
       </c>
@@ -1607,7 +1611,7 @@
         <v>178</v>
       </c>
     </row>
-    <row customFormat="1" r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>156</v>
       </c>
@@ -1640,13 +1644,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1654,7 +1658,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -1689,35 +1693,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
-    <hyperlink r:id="rId3" ref="A4"/>
-    <hyperlink r:id="rId4" ref="A5"/>
-    <hyperlink r:id="rId5" ref="A6"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="11" max="12" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="14.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -1767,29 +1771,17 @@
         <v>30</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>45</v>
+        <v>215</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1834,6 +1826,12 @@
       <c r="N2" s="4" t="s">
         <v>211</v>
       </c>
+      <c r="P2" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1878,10 +1876,16 @@
       <c r="N3" s="4" t="s">
         <v>105</v>
       </c>
+      <c r="P3" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
         <v>94</v>
@@ -1922,21 +1926,27 @@
       <c r="N4" s="4" t="s">
         <v>112</v>
       </c>
+      <c r="P4" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>218</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F4"/>
-    <hyperlink r:id="rId2" ref="F2"/>
-    <hyperlink r:id="rId3" ref="F3"/>
+    <hyperlink ref="F4" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="F3" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
@@ -1944,19 +1954,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="11" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -2148,17 +2158,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F2"/>
-    <hyperlink r:id="rId2" ref="F3"/>
-    <hyperlink r:id="rId3" ref="F4"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -2166,15 +2176,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="3" max="5" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="1" max="2" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2221,7 +2231,7 @@
         <v>190</v>
       </c>
     </row>
-    <row customFormat="1" r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>188</v>
       </c>
@@ -2265,7 +2275,7 @@
         <v>191</v>
       </c>
     </row>
-    <row customFormat="1" r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>188</v>
       </c>
@@ -2309,7 +2319,7 @@
         <v>191</v>
       </c>
     </row>
-    <row customFormat="1" r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>188</v>
       </c>
@@ -2353,7 +2363,7 @@
         <v>191</v>
       </c>
     </row>
-    <row customFormat="1" r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>188</v>
       </c>
@@ -2397,7 +2407,7 @@
         <v>191</v>
       </c>
     </row>
-    <row customFormat="1" r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>188</v>
       </c>
@@ -2443,20 +2453,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G2"/>
-    <hyperlink r:id="rId2" ref="G3"/>
-    <hyperlink r:id="rId3" ref="G4"/>
-    <hyperlink r:id="rId4" ref="G5"/>
-    <hyperlink r:id="rId5" ref="G6"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -2464,7 +2474,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="1" max="1" width="19.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2483,7 +2493,7 @@
         <v>143</v>
       </c>
     </row>
-    <row customFormat="1" r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>142</v>
       </c>
@@ -2491,7 +2501,7 @@
         <v>143</v>
       </c>
     </row>
-    <row customFormat="1" r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>142</v>
       </c>
@@ -2499,7 +2509,7 @@
         <v>143</v>
       </c>
     </row>
-    <row customFormat="1" r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>142</v>
       </c>
@@ -2507,7 +2517,7 @@
         <v>143</v>
       </c>
     </row>
-    <row customFormat="1" r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>142</v>
       </c>
@@ -2516,13 +2526,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -2530,8 +2540,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="1" max="1" width="14" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2542,7 +2552,7 @@
         <v>28</v>
       </c>
     </row>
-    <row customFormat="1" r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2550,7 +2560,7 @@
         <v>29</v>
       </c>
     </row>
-    <row customFormat="1" r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -2558,7 +2568,7 @@
         <v>29</v>
       </c>
     </row>
-    <row customFormat="1" r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -2566,7 +2576,7 @@
         <v>29</v>
       </c>
     </row>
-    <row customFormat="1" r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -2574,7 +2584,7 @@
         <v>29</v>
       </c>
     </row>
-    <row customFormat="1" r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -2583,190 +2593,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row customFormat="1" r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row customFormat="1" r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row customFormat="1" r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row customFormat="1" r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row customFormat="1" r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2775,12 +2608,189 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2806,7 +2816,7 @@
         <v>165</v>
       </c>
     </row>
-    <row customFormat="1" r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>166</v>
       </c>
@@ -2829,7 +2839,7 @@
         <v>161</v>
       </c>
     </row>
-    <row customFormat="1" r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>166</v>
       </c>
@@ -2852,7 +2862,7 @@
         <v>161</v>
       </c>
     </row>
-    <row customFormat="1" r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>166</v>
       </c>
@@ -2875,7 +2885,7 @@
         <v>161</v>
       </c>
     </row>
-    <row customFormat="1" r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>166</v>
       </c>
@@ -2898,7 +2908,7 @@
         <v>161</v>
       </c>
     </row>
-    <row customFormat="1" r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>166</v>
       </c>
@@ -2922,6 +2932,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ARCProject/ArcTest.xlsx
+++ b/ARCProject/ArcTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="6120" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="6120" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NewBuildingProject" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="218">
   <si>
     <t>Project Name</t>
   </si>
@@ -254,9 +254,6 @@
   </si>
   <si>
     <t>TE Connectivity</t>
-  </si>
-  <si>
-    <t>saurav.mc@gmail.com</t>
   </si>
   <si>
     <t>Turkey</t>
@@ -1113,7 +1110,7 @@
         <v>45</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>47</v>
@@ -1137,18 +1134,18 @@
         <v>68</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -1163,10 +1160,10 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="H2" t="s">
         <v>60</v>
@@ -1184,22 +1181,22 @@
         <v>60</v>
       </c>
       <c r="M2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>33</v>
       </c>
       <c r="Y2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z2" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="Z2" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="AA2" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
@@ -1243,10 +1240,10 @@
         <v>44</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q3" t="s">
         <v>46</v>
@@ -1313,7 +1310,7 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1334,87 +1331,87 @@
         <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>29</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="Y5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z5" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="Z5" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="AA5" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
         <v>83</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>84</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>85</v>
-      </c>
-      <c r="F6" t="s">
-        <v>86</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="Y6" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z6" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="Z6" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="AA6" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1453,194 +1450,194 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" t="s">
         <v>153</v>
       </c>
-      <c r="B1" t="s">
-        <v>154</v>
-      </c>
       <c r="C1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" t="s">
         <v>167</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>168</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>169</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>170</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>171</v>
       </c>
-      <c r="H1" t="s">
-        <v>172</v>
-      </c>
       <c r="I1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1" t="s">
         <v>175</v>
-      </c>
-      <c r="J1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="G2" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="I2" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="G3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="I3" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="G4" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="I4" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="G5" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="I5" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="G6" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="I6" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1663,32 +1660,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -1707,8 +1704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1726,31 +1723,31 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" t="s">
         <v>200</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>201</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>202</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>203</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>204</v>
       </c>
-      <c r="F1" t="s">
-        <v>205</v>
-      </c>
       <c r="G1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -1771,10 +1768,10 @@
         <v>30</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -1785,19 +1782,19 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
         <v>94</v>
       </c>
-      <c r="C2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>95</v>
-      </c>
-      <c r="E2" t="s">
-        <v>96</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
@@ -1806,131 +1803,131 @@
         <v>60</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K2" t="s">
         <v>212</v>
-      </c>
-      <c r="K2" t="s">
-        <v>213</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P2" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
         <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" t="s">
         <v>101</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>102</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" t="s">
         <v>103</v>
       </c>
-      <c r="L3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="N3" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="P3" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" t="s">
         <v>106</v>
-      </c>
-      <c r="E4" t="s">
-        <v>107</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J4" t="s">
         <v>108</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>109</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" t="s">
         <v>110</v>
       </c>
-      <c r="L4" t="s">
-        <v>90</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="N4" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="P4" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -1948,8 +1945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1971,31 +1968,31 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>201</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>202</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>204</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -2015,8 +2012,12 @@
       <c r="O1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="P1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
@@ -2026,54 +2027,60 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
         <v>113</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>114</v>
-      </c>
-      <c r="C2" t="s">
-        <v>115</v>
       </c>
       <c r="D2" t="s">
         <v>73</v>
       </c>
       <c r="E2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" t="s">
         <v>118</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" t="s">
         <v>119</v>
       </c>
-      <c r="K2" t="s">
-        <v>110</v>
-      </c>
-      <c r="L2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>121</v>
+      <c r="P2" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
         <v>70</v>
@@ -2082,85 +2089,97 @@
         <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
         <v>60</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J3" t="s">
         <v>124</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>125</v>
-      </c>
-      <c r="K3" t="s">
-        <v>126</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
       </c>
       <c r="M3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>127</v>
+      <c r="P3" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
         <v>128</v>
       </c>
-      <c r="B4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>129</v>
-      </c>
-      <c r="E4" t="s">
-        <v>130</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" t="s">
         <v>132</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>133</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" t="s">
         <v>134</v>
       </c>
-      <c r="L4" t="s">
-        <v>78</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="N4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>136</v>
+      <c r="P4" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId1"/>
     <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2189,19 +2208,19 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" t="s">
         <v>144</v>
       </c>
-      <c r="B1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C1" t="s">
-        <v>145</v>
-      </c>
       <c r="D1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F1" t="s">
         <v>18</v>
@@ -2228,24 +2247,24 @@
         <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" t="s">
         <v>188</v>
       </c>
-      <c r="B2" t="s">
-        <v>189</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -2257,39 +2276,39 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J2" t="s">
         <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" t="s">
         <v>188</v>
       </c>
-      <c r="B3" t="s">
-        <v>189</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -2301,39 +2320,39 @@
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J3" t="s">
         <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" t="s">
         <v>188</v>
       </c>
-      <c r="B4" t="s">
-        <v>189</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -2345,39 +2364,39 @@
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J4" t="s">
         <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" t="s">
         <v>188</v>
       </c>
-      <c r="B5" t="s">
-        <v>189</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -2389,39 +2408,39 @@
         <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J5" t="s">
         <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" t="s">
         <v>188</v>
       </c>
-      <c r="B6" t="s">
-        <v>189</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -2433,22 +2452,22 @@
         <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J6" t="s">
         <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2479,7 +2498,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
@@ -2487,42 +2506,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" t="s">
         <v>142</v>
-      </c>
-      <c r="B2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s">
         <v>142</v>
-      </c>
-      <c r="B3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" t="s">
         <v>142</v>
-      </c>
-      <c r="B4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" t="s">
         <v>142</v>
-      </c>
-      <c r="B5" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" t="s">
         <v>142</v>
-      </c>
-      <c r="B6" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2619,155 +2638,155 @@
         <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" t="s">
         <v>153</v>
       </c>
-      <c r="D1" t="s">
-        <v>154</v>
-      </c>
       <c r="E1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" t="s">
         <v>162</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>163</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>164</v>
-      </c>
-      <c r="H1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2798,137 +2817,137 @@
         <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
         <v>153</v>
       </c>
-      <c r="C1" t="s">
-        <v>154</v>
-      </c>
       <c r="D1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" t="s">
         <v>162</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>163</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>164</v>
-      </c>
-      <c r="G1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/ARCProject/ArcTest.xlsx
+++ b/ARCProject/ArcTest.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\group10\workspace\ARCProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="6120" firstSheet="2" activeTab="3"/>
   </bookViews>
@@ -19,7 +24,6 @@
     <sheet name="BWaste" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="219">
   <si>
     <t>Project Name</t>
   </si>
@@ -367,21 +371,12 @@
     <t>98765</t>
   </si>
   <si>
-    <t>Community LEED for Communities</t>
-  </si>
-  <si>
     <t>Communities</t>
   </si>
   <si>
     <t>LEED for Communities</t>
   </si>
   <si>
-    <t>S &amp; L Electric Inc.</t>
-  </si>
-  <si>
-    <t>65535</t>
-  </si>
-  <si>
     <t>32567</t>
   </si>
   <si>
@@ -421,9 +416,6 @@
     <t>K &amp; M Builders, LLC</t>
   </si>
   <si>
-    <t>16231</t>
-  </si>
-  <si>
     <t>15190</t>
   </si>
   <si>
@@ -683,12 +675,30 @@
   </si>
   <si>
     <t>18000</t>
+  </si>
+  <si>
+    <t>655</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>1623</t>
+  </si>
+  <si>
+    <t>CommunityLeed 100601</t>
+  </si>
+  <si>
+    <t>$ 5000.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -737,7 +747,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -748,6 +758,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1110,7 +1121,7 @@
         <v>45</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>47</v>
@@ -1134,18 +1145,18 @@
         <v>68</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -1160,10 +1171,10 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H2" t="s">
         <v>60</v>
@@ -1181,22 +1192,22 @@
         <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>33</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
@@ -1240,10 +1251,10 @@
         <v>44</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q3" t="s">
         <v>46</v>
@@ -1310,7 +1321,7 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1352,13 +1363,13 @@
         <v>80</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
@@ -1405,13 +1416,13 @@
         <v>91</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1450,194 +1461,194 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D2" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H2" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="G1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I1" t="s">
-        <v>174</v>
-      </c>
-      <c r="J1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="I2" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="F3" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="G3" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="F4" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="G4" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="F5" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="G5" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="F6" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="G6" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1660,32 +1671,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1723,25 +1734,25 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" t="s">
         <v>199</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>200</v>
       </c>
-      <c r="C1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>202</v>
-      </c>
-      <c r="E1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G1" t="s">
-        <v>206</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
@@ -1768,10 +1779,10 @@
         <v>30</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -1782,7 +1793,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
         <v>93</v>
@@ -1803,31 +1814,31 @@
         <v>60</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>97</v>
       </c>
       <c r="J2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -1853,7 +1864,7 @@
         <v>77</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>100</v>
@@ -1874,15 +1885,15 @@
         <v>104</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B4" t="s">
         <v>93</v>
@@ -1903,7 +1914,7 @@
         <v>89</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>107</v>
@@ -1924,10 +1935,10 @@
         <v>111</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -1945,13 +1956,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="21.28515625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
@@ -1964,29 +1975,30 @@
     <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="10.5703125" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" t="s">
         <v>199</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>200</v>
       </c>
-      <c r="C1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>202</v>
-      </c>
-      <c r="E1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G1" t="s">
-        <v>206</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
@@ -2013,12 +2025,14 @@
         <v>30</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="R1" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
@@ -2027,19 +2041,19 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" t="s">
         <v>112</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>113</v>
-      </c>
-      <c r="C2" t="s">
-        <v>114</v>
       </c>
       <c r="D2" t="s">
         <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
@@ -2048,13 +2062,13 @@
         <v>89</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>116</v>
+        <v>214</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K2" t="s">
         <v>109</v>
@@ -2063,24 +2077,27 @@
         <v>89</v>
       </c>
       <c r="M2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
         <v>70</v>
@@ -2089,7 +2106,7 @@
         <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>17</v>
@@ -2098,48 +2115,51 @@
         <v>60</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>117</v>
+        <v>215</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
         <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>17</v>
@@ -2148,31 +2168,34 @@
         <v>77</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L4" t="s">
         <v>77</v>
       </c>
       <c r="M4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2189,7 +2212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -2208,19 +2231,19 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" t="s">
         <v>144</v>
-      </c>
-      <c r="D1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" t="s">
-        <v>148</v>
       </c>
       <c r="F1" t="s">
         <v>18</v>
@@ -2247,24 +2270,24 @@
         <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -2276,39 +2299,39 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J2" t="s">
         <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -2320,39 +2343,39 @@
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J3" t="s">
         <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -2364,39 +2387,39 @@
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J4" t="s">
         <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -2408,39 +2431,39 @@
         <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J5" t="s">
         <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -2452,22 +2475,22 @@
         <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J6" t="s">
         <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2498,7 +2521,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
@@ -2506,42 +2529,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2571,7 +2594,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2579,7 +2602,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -2587,7 +2610,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -2595,7 +2618,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -2603,7 +2626,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -2638,155 +2661,155 @@
         <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F2" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="H2" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="H3" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="H4" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="H5" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="H6" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2817,137 +2840,137 @@
         <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>161</v>
       </c>
-      <c r="E1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="G3" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="G4" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="G5" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="G6" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/ARCProject/ArcTest.xlsx
+++ b/ARCProject/ArcTest.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\group10\workspace\ARCProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="6120" firstSheet="2" activeTab="3"/>
+    <workbookView activeTab="3" firstSheet="2" windowHeight="6120" windowWidth="14790" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="NewBuildingProject" sheetId="1" r:id="rId1"/>
-    <sheet name="BTeam" sheetId="10" r:id="rId2"/>
-    <sheet name="NewCityProject" sheetId="5" r:id="rId3"/>
-    <sheet name="NewCommunityProject" sheetId="6" r:id="rId4"/>
-    <sheet name="Payment" sheetId="2" r:id="rId5"/>
-    <sheet name="Login" sheetId="3" r:id="rId6"/>
-    <sheet name="Add Meter" sheetId="4" r:id="rId7"/>
-    <sheet name="BEnergy" sheetId="7" r:id="rId8"/>
-    <sheet name="BWater" sheetId="8" r:id="rId9"/>
-    <sheet name="BWaste" sheetId="9" r:id="rId10"/>
+    <sheet name="NewBuildingProject" r:id="rId1" sheetId="1"/>
+    <sheet name="BTeam" r:id="rId2" sheetId="10"/>
+    <sheet name="NewCityProject" r:id="rId3" sheetId="5"/>
+    <sheet name="NewCommunityProject" r:id="rId4" sheetId="6"/>
+    <sheet name="Payment" r:id="rId5" sheetId="2"/>
+    <sheet name="Login" r:id="rId6" sheetId="3"/>
+    <sheet name="Add Meter" r:id="rId7" sheetId="4"/>
+    <sheet name="BEnergy" r:id="rId8" sheetId="7"/>
+    <sheet name="BWater" r:id="rId9" sheetId="8"/>
+    <sheet name="BWaste" r:id="rId10" sheetId="9"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="220">
   <si>
     <t>Project Name</t>
   </si>
@@ -690,6 +690,9 @@
   </si>
   <si>
     <t>$ 5000.00</t>
+  </si>
+  <si>
+    <t>CommunityNone 250802</t>
   </si>
 </sst>
 </file>
@@ -744,28 +747,28 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="15" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="8" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -782,10 +785,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -820,7 +823,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -855,7 +858,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -949,21 +952,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -980,7 +983,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1032,15 +1035,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
@@ -1048,27 +1051,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.140625" style="2" collapsed="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.140625" style="2" collapsed="1"/>
-    <col min="15" max="15" width="12.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="9" max="9" style="2" width="9.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="14" max="14" style="2" width="9.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="5" width="12.140625" collapsed="true"/>
+    <col min="16" max="17" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
@@ -1427,19 +1430,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1"/>
-    <hyperlink ref="G4" r:id="rId2"/>
-    <hyperlink ref="G5" r:id="rId3"/>
-    <hyperlink ref="G6" r:id="rId4"/>
+    <hyperlink r:id="rId1" ref="G3"/>
+    <hyperlink r:id="rId2" ref="G4"/>
+    <hyperlink r:id="rId3" ref="G5"/>
+    <hyperlink r:id="rId4" ref="G6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="F6" sqref="A6:XFD6"/>
@@ -1447,16 +1450,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1652,13 +1655,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1666,7 +1669,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -1701,19 +1704,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink r:id="rId2" ref="A3"/>
+    <hyperlink r:id="rId3" ref="A4"/>
+    <hyperlink r:id="rId4" ref="A5"/>
+    <hyperlink r:id="rId5" ref="A6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="P1" sqref="P1:Q1048576"/>
@@ -1721,15 +1724,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -1943,18 +1946,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="F3" r:id="rId3"/>
+    <hyperlink r:id="rId1" ref="F4"/>
+    <hyperlink r:id="rId2" ref="F2"/>
+    <hyperlink r:id="rId3" ref="F3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="V4" sqref="V4"/>
@@ -1962,20 +1965,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.890625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="13.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -2094,7 +2097,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
         <v>112</v>
@@ -2200,17 +2203,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F2" r:id="rId3"/>
+    <hyperlink r:id="rId1" ref="F4"/>
+    <hyperlink r:id="rId2" ref="F3"/>
+    <hyperlink r:id="rId3" ref="F2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -2218,15 +2221,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="3" max="5" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2495,20 +2498,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
-    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink r:id="rId1" ref="G2"/>
+    <hyperlink r:id="rId2" ref="G3"/>
+    <hyperlink r:id="rId3" ref="G4"/>
+    <hyperlink r:id="rId4" ref="G5"/>
+    <hyperlink r:id="rId5" ref="G6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -2516,7 +2519,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2568,13 +2571,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -2582,8 +2585,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2635,13 +2638,190 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2650,189 +2830,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2974,6 +2977,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/ARCProject/ArcTest.xlsx
+++ b/ARCProject/ArcTest.xlsx
@@ -1,31 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\group10\workspace\ARCProject\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="2" windowHeight="6120" windowWidth="14790" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="6120" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="NewBuildingProject" r:id="rId1" sheetId="1"/>
-    <sheet name="BTeam" r:id="rId2" sheetId="10"/>
-    <sheet name="NewCityProject" r:id="rId3" sheetId="5"/>
-    <sheet name="NewCommunityProject" r:id="rId4" sheetId="6"/>
-    <sheet name="Payment" r:id="rId5" sheetId="2"/>
-    <sheet name="Login" r:id="rId6" sheetId="3"/>
-    <sheet name="Add Meter" r:id="rId7" sheetId="4"/>
-    <sheet name="BEnergy" r:id="rId8" sheetId="7"/>
-    <sheet name="BWater" r:id="rId9" sheetId="8"/>
-    <sheet name="BWaste" r:id="rId10" sheetId="9"/>
+    <sheet name="NewBuildingProject" sheetId="1" r:id="rId1"/>
+    <sheet name="BTeam" sheetId="10" r:id="rId2"/>
+    <sheet name="NewCityProject" sheetId="5" r:id="rId3"/>
+    <sheet name="NewCommunityProject" sheetId="6" r:id="rId4"/>
+    <sheet name="Payment" sheetId="2" r:id="rId5"/>
+    <sheet name="Login" sheetId="3" r:id="rId6"/>
+    <sheet name="Add Meter" sheetId="4" r:id="rId7"/>
+    <sheet name="BEnergy" sheetId="7" r:id="rId8"/>
+    <sheet name="BWater" sheetId="8" r:id="rId9"/>
+    <sheet name="BWaste" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:F18"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -33,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="221">
   <si>
     <t>Project Name</t>
   </si>
@@ -110,9 +106,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>stg-01@gmail.com</t>
-  </si>
-  <si>
     <t>Meter Name</t>
   </si>
   <si>
@@ -146,12 +139,6 @@
     <t>Educational: College, Public</t>
   </si>
   <si>
-    <t>GE Energy</t>
-  </si>
-  <si>
-    <t>testuser@gmail.com</t>
-  </si>
-  <si>
     <t>Pakistan</t>
   </si>
   <si>
@@ -212,9 +199,6 @@
     <t>Corporate: Privately Held</t>
   </si>
   <si>
-    <t>GFF, Inc.</t>
-  </si>
-  <si>
     <t>United States</t>
   </si>
   <si>
@@ -257,9 +241,6 @@
     <t>Government Use: State</t>
   </si>
   <si>
-    <t>TE Connectivity</t>
-  </si>
-  <si>
     <t>Turkey</t>
   </si>
   <si>
@@ -290,9 +271,6 @@
     <t>Corporate: Publicly Traded</t>
   </si>
   <si>
-    <t>S Corp</t>
-  </si>
-  <si>
     <t>Switzerland</t>
   </si>
   <si>
@@ -371,6 +349,9 @@
     <t>98765</t>
   </si>
   <si>
+    <t>Community LEED for Communities</t>
+  </si>
+  <si>
     <t>Communities</t>
   </si>
   <si>
@@ -392,9 +373,6 @@
     <t>Community Other</t>
   </si>
   <si>
-    <t>N &amp; S Electric, Inc.</t>
-  </si>
-  <si>
     <t>13171</t>
   </si>
   <si>
@@ -413,286 +391,307 @@
     <t>Investor: ROEC</t>
   </si>
   <si>
+    <t>15190</t>
+  </si>
+  <si>
+    <t>Swift Street</t>
+  </si>
+  <si>
+    <t>Wolf City</t>
+  </si>
+  <si>
+    <t>Borders</t>
+  </si>
+  <si>
+    <t>09871</t>
+  </si>
+  <si>
+    <t>ssinha@usgbc.org</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>35005</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>saurav@groupten.com</t>
+  </si>
+  <si>
+    <t>LEEDg10</t>
+  </si>
+  <si>
+    <t>Card Name</t>
+  </si>
+  <si>
+    <t>Card Number</t>
+  </si>
+  <si>
+    <t>4012000010000</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>09/2025</t>
+  </si>
+  <si>
+    <t>CVV</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>99501</t>
+  </si>
+  <si>
+    <t>Alashka</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Test Energy Meter</t>
+  </si>
+  <si>
+    <t>Aug 01, 2016</t>
+  </si>
+  <si>
+    <t>Sep 01, 2016</t>
+  </si>
+  <si>
+    <t>6002</t>
+  </si>
+  <si>
+    <t>73272</t>
+  </si>
+  <si>
+    <t>23784</t>
+  </si>
+  <si>
+    <t>23632</t>
+  </si>
+  <si>
+    <t>Reading1</t>
+  </si>
+  <si>
+    <t>Reading2</t>
+  </si>
+  <si>
+    <t>Reading3</t>
+  </si>
+  <si>
+    <t>Reading4</t>
+  </si>
+  <si>
+    <t>Test Water Meter</t>
+  </si>
+  <si>
+    <t>Waste Gen1</t>
+  </si>
+  <si>
+    <t>Waste Gen2</t>
+  </si>
+  <si>
+    <t>Waste Gen3</t>
+  </si>
+  <si>
+    <t>Waste Gen4</t>
+  </si>
+  <si>
+    <t>Waste Div1</t>
+  </si>
+  <si>
+    <t>Waste Div2</t>
+  </si>
+  <si>
+    <t>5009</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>Waste Div3</t>
+  </si>
+  <si>
+    <t>Waste Div4</t>
+  </si>
+  <si>
+    <t>17002</t>
+  </si>
+  <si>
+    <t>15009</t>
+  </si>
+  <si>
+    <t>opr_hrs1</t>
+  </si>
+  <si>
+    <t>opr_hrs2</t>
+  </si>
+  <si>
+    <t>occupancy</t>
+  </si>
+  <si>
+    <t>1680</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Team_mail</t>
+  </si>
+  <si>
+    <t>pkamal@usgbc.org</t>
+  </si>
+  <si>
+    <t>$ 1500.00</t>
+  </si>
+  <si>
+    <t>Card Last</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brinkin </t>
+  </si>
+  <si>
+    <t>Sera</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>8553463375</t>
+  </si>
+  <si>
+    <t>Other_Meter Name</t>
+  </si>
+  <si>
+    <t>Test Other Meter</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>US Building 306051</t>
+  </si>
+  <si>
+    <t>98734</t>
+  </si>
+  <si>
+    <t>US Building Other 775828</t>
+  </si>
+  <si>
+    <t>Above ground</t>
+  </si>
+  <si>
+    <t>is_station2</t>
+  </si>
+  <si>
+    <t>ProjectName</t>
+  </si>
+  <si>
+    <t>ProjectType</t>
+  </si>
+  <si>
+    <t>RatingSystem</t>
+  </si>
+  <si>
+    <t>OwnerType</t>
+  </si>
+  <si>
+    <t>OwnerOrganization</t>
+  </si>
+  <si>
+    <t>OwnerEmail</t>
+  </si>
+  <si>
+    <t>LEEDCitiesTestProject 161386</t>
+  </si>
+  <si>
+    <t>OwnerCountry</t>
+  </si>
+  <si>
+    <t>5600</t>
+  </si>
+  <si>
+    <t>4500</t>
+  </si>
+  <si>
+    <t>3388</t>
+  </si>
+  <si>
+    <t>56211</t>
+  </si>
+  <si>
+    <t>312 Wilson Street</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>LEEDCitiesTestProject 11092</t>
+  </si>
+  <si>
+    <t>editArea</t>
+  </si>
+  <si>
+    <t>editPopulation</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>6553</t>
+  </si>
+  <si>
+    <t>3256</t>
+  </si>
+  <si>
+    <t>1623</t>
+  </si>
+  <si>
+    <t>P &amp; C Construction, Inc.</t>
+  </si>
+  <si>
+    <t>$ 5000.00</t>
+  </si>
+  <si>
+    <t>D &amp; A Building Services Inc.</t>
+  </si>
+  <si>
+    <t>$ 250.00</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>ParkDetail</t>
+  </si>
+  <si>
+    <t>http://www.stg.arconline.io</t>
+  </si>
+  <si>
+    <t>Brings the benefits of smart grid thinking to the forefront with a credit that rewards projects for participating in demand response programs</t>
+  </si>
+  <si>
+    <t>B &amp; B Associates, Inc.</t>
+  </si>
+  <si>
+    <t>T &amp; H Engineering, Inc.</t>
+  </si>
+  <si>
+    <t>S &amp; B Engineers and Constructors, Inc</t>
+  </si>
+  <si>
     <t>K &amp; M Builders, LLC</t>
-  </si>
-  <si>
-    <t>15190</t>
-  </si>
-  <si>
-    <t>Swift Street</t>
-  </si>
-  <si>
-    <t>Wolf City</t>
-  </si>
-  <si>
-    <t>Borders</t>
-  </si>
-  <si>
-    <t>09871</t>
-  </si>
-  <si>
-    <t>T &amp; W Corporation</t>
-  </si>
-  <si>
-    <t>ssinha@usgbc.org</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>35005</t>
-  </si>
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>saurav@groupten.com</t>
-  </si>
-  <si>
-    <t>LEEDg10</t>
-  </si>
-  <si>
-    <t>Card Name</t>
-  </si>
-  <si>
-    <t>Card Number</t>
-  </si>
-  <si>
-    <t>4012000010000</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>09/2025</t>
-  </si>
-  <si>
-    <t>CVV</t>
-  </si>
-  <si>
-    <t>999</t>
-  </si>
-  <si>
-    <t>99501</t>
-  </si>
-  <si>
-    <t>Alashka</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
-  </si>
-  <si>
-    <t>Test Energy Meter</t>
-  </si>
-  <si>
-    <t>Aug 01, 2016</t>
-  </si>
-  <si>
-    <t>Sep 01, 2016</t>
-  </si>
-  <si>
-    <t>6002</t>
-  </si>
-  <si>
-    <t>73272</t>
-  </si>
-  <si>
-    <t>23784</t>
-  </si>
-  <si>
-    <t>23632</t>
-  </si>
-  <si>
-    <t>Reading1</t>
-  </si>
-  <si>
-    <t>Reading2</t>
-  </si>
-  <si>
-    <t>Reading3</t>
-  </si>
-  <si>
-    <t>Reading4</t>
-  </si>
-  <si>
-    <t>Test Water Meter</t>
-  </si>
-  <si>
-    <t>Waste Gen1</t>
-  </si>
-  <si>
-    <t>Waste Gen2</t>
-  </si>
-  <si>
-    <t>Waste Gen3</t>
-  </si>
-  <si>
-    <t>Waste Gen4</t>
-  </si>
-  <si>
-    <t>Waste Div1</t>
-  </si>
-  <si>
-    <t>Waste Div2</t>
-  </si>
-  <si>
-    <t>5009</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>Waste Div3</t>
-  </si>
-  <si>
-    <t>Waste Div4</t>
-  </si>
-  <si>
-    <t>17002</t>
-  </si>
-  <si>
-    <t>15009</t>
-  </si>
-  <si>
-    <t>opr_hrs1</t>
-  </si>
-  <si>
-    <t>opr_hrs2</t>
-  </si>
-  <si>
-    <t>occupancy</t>
-  </si>
-  <si>
-    <t>1680</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>Team_mail</t>
-  </si>
-  <si>
-    <t>pkamal@usgbc.org</t>
-  </si>
-  <si>
-    <t>$ 1500.00</t>
-  </si>
-  <si>
-    <t>Card Last</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brinkin </t>
-  </si>
-  <si>
-    <t>Sera</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>8553463375</t>
-  </si>
-  <si>
-    <t>Other_Meter Name</t>
-  </si>
-  <si>
-    <t>Test Other Meter</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>US Building 306051</t>
-  </si>
-  <si>
-    <t>98734</t>
-  </si>
-  <si>
-    <t>US Building Other 775828</t>
-  </si>
-  <si>
-    <t>Above ground</t>
-  </si>
-  <si>
-    <t>is_station2</t>
-  </si>
-  <si>
-    <t>ProjectName</t>
-  </si>
-  <si>
-    <t>ProjectType</t>
-  </si>
-  <si>
-    <t>RatingSystem</t>
-  </si>
-  <si>
-    <t>OwnerType</t>
-  </si>
-  <si>
-    <t>OwnerOrganization</t>
-  </si>
-  <si>
-    <t>OwnerEmail</t>
-  </si>
-  <si>
-    <t>LEEDCitiesTestProject 161386</t>
-  </si>
-  <si>
-    <t>OwnerCountry</t>
-  </si>
-  <si>
-    <t>5600</t>
-  </si>
-  <si>
-    <t>4500</t>
-  </si>
-  <si>
-    <t>3388</t>
-  </si>
-  <si>
-    <t>56211</t>
-  </si>
-  <si>
-    <t>312 Wilson Street</t>
-  </si>
-  <si>
-    <t>Chicago</t>
-  </si>
-  <si>
-    <t>LEEDCitiesTestProject 11092</t>
-  </si>
-  <si>
-    <t>editArea</t>
-  </si>
-  <si>
-    <t>editPopulation</t>
-  </si>
-  <si>
-    <t>4000</t>
-  </si>
-  <si>
-    <t>18000</t>
-  </si>
-  <si>
-    <t>655</t>
-  </si>
-  <si>
-    <t>325</t>
-  </si>
-  <si>
-    <t>1623</t>
-  </si>
-  <si>
-    <t>CommunityLeed 100601</t>
-  </si>
-  <si>
-    <t>$ 5000.00</t>
-  </si>
-  <si>
-    <t>CommunityNone 250802</t>
   </si>
 </sst>
 </file>
@@ -747,28 +746,28 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="15" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="8" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -785,10 +784,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -823,7 +822,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -858,7 +857,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -952,21 +951,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -983,7 +982,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1035,46 +1034,49 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="9" max="9" style="2" width="9.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="14" max="14" style="2" width="9.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="5" width="12.140625" collapsed="true"/>
-    <col min="16" max="17" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.140625" style="2" collapsed="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.140625" style="2" collapsed="1"/>
+    <col min="15" max="15" width="12.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="18.28515625" customWidth="1"/>
+    <col min="24" max="24" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="19" customWidth="1"/>
+    <col min="30" max="30" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1085,7 +1087,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -1118,48 +1120,57 @@
         <v>12</v>
       </c>
       <c r="O1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -1174,275 +1185,284 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>218</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
       </c>
       <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" t="s">
-        <v>134</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="Y2" s="4" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" t="s">
         <v>38</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="L3" t="s">
         <v>40</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>41</v>
       </c>
-      <c r="K3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="N3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="P3" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q3" t="s">
         <v>43</v>
       </c>
-      <c r="M3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P3" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>46</v>
-      </c>
       <c r="R3" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E4" t="s">
+      <c r="K4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F4" t="s">
+      <c r="L4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="V4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N4" s="3" t="s">
+      <c r="W4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="X4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="W4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="X4" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB4" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>220</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="Y5" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>76</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>81</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G3"/>
-    <hyperlink r:id="rId2" ref="G4"/>
-    <hyperlink r:id="rId3" ref="G5"/>
-    <hyperlink r:id="rId4" ref="G6"/>
+    <hyperlink ref="G5" r:id="rId1"/>
+    <hyperlink ref="G6" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G3" r:id="rId4"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="F6" sqref="A6:XFD6"/>
@@ -1450,218 +1470,218 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G2" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J2" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I1" t="s">
-        <v>170</v>
-      </c>
-      <c r="J1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1669,99 +1689,99 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
-    <hyperlink r:id="rId3" ref="A4"/>
-    <hyperlink r:id="rId4" ref="A5"/>
-    <hyperlink r:id="rId5" ref="A6"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Q1048576"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="11" max="12" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="14.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -1779,15 +1799,17 @@
         <v>12</v>
       </c>
       <c r="O1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
@@ -1796,218 +1818,218 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>217</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="K2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="P3" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="J3" t="s">
-        <v>101</v>
-      </c>
-      <c r="K3" t="s">
-        <v>102</v>
-      </c>
-      <c r="L3" t="s">
-        <v>77</v>
-      </c>
-      <c r="M3" t="s">
-        <v>103</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>212</v>
-      </c>
       <c r="Q3" s="4" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" t="s">
+        <v>104</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="J4" t="s">
-        <v>108</v>
-      </c>
-      <c r="K4" t="s">
-        <v>109</v>
-      </c>
-      <c r="L4" t="s">
-        <v>89</v>
-      </c>
-      <c r="M4" t="s">
-        <v>110</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>213</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F4"/>
-    <hyperlink r:id="rId2" ref="F2"/>
-    <hyperlink r:id="rId3" ref="F3"/>
+    <hyperlink ref="F4" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="F3" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.890625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="11" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="13.140625" collapsed="false"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -2025,16 +2047,16 @@
         <v>12</v>
       </c>
       <c r="O1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
@@ -2044,209 +2066,209 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>209</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="J4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="K4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="L4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F4"/>
-    <hyperlink r:id="rId2" ref="F3"/>
-    <hyperlink r:id="rId3" ref="F2"/>
+    <hyperlink ref="F4" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="3" max="5" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="1" max="2" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F1" t="s">
         <v>18</v>
@@ -2270,27 +2292,27 @@
         <v>12</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -2302,39 +2324,39 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="J2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -2346,39 +2368,39 @@
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -2390,39 +2412,39 @@
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K4" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -2434,39 +2456,39 @@
         <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="J5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K5" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -2478,53 +2500,53 @@
         <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="J6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K6" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G2"/>
-    <hyperlink r:id="rId2" ref="G3"/>
-    <hyperlink r:id="rId3" ref="G4"/>
-    <hyperlink r:id="rId4" ref="G5"/>
-    <hyperlink r:id="rId5" ref="G6"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="1" max="1" width="19.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
@@ -2532,52 +2554,52 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -2585,243 +2607,66 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="1" max="1" width="14" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2830,153 +2675,330 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>161</v>
-      </c>
       <c r="B3" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>153</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>161</v>
-      </c>
       <c r="B4" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>161</v>
-      </c>
       <c r="B5" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>161</v>
-      </c>
       <c r="B6" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ARCProject/ArcTest.xlsx
+++ b/ARCProject/ArcTest.xlsx
@@ -4,22 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="6120" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6210" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="NewBuildingProject" sheetId="1" r:id="rId1"/>
     <sheet name="BTeam" sheetId="10" r:id="rId2"/>
     <sheet name="NewCityProject" sheetId="5" r:id="rId3"/>
     <sheet name="NewCommunityProject" sheetId="6" r:id="rId4"/>
-    <sheet name="Payment" sheetId="2" r:id="rId5"/>
-    <sheet name="Login" sheetId="3" r:id="rId6"/>
-    <sheet name="Add Meter" sheetId="4" r:id="rId7"/>
-    <sheet name="BEnergy" sheetId="7" r:id="rId8"/>
-    <sheet name="BWater" sheetId="8" r:id="rId9"/>
-    <sheet name="BWaste" sheetId="9" r:id="rId10"/>
+    <sheet name="CommunityPayment" sheetId="12" r:id="rId5"/>
+    <sheet name="CityPayment" sheetId="11" r:id="rId6"/>
+    <sheet name="Payment" sheetId="2" r:id="rId7"/>
+    <sheet name="Login" sheetId="3" r:id="rId8"/>
+    <sheet name="Add Meter" sheetId="4" r:id="rId9"/>
+    <sheet name="BEnergy" sheetId="7" r:id="rId10"/>
+    <sheet name="BWater" sheetId="8" r:id="rId11"/>
+    <sheet name="BWaste" sheetId="9" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F18"/>
+  <oleSize ref="G1:O18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="221">
   <si>
     <t>Project Name</t>
   </si>
@@ -259,9 +261,6 @@
     <t>77123</t>
   </si>
   <si>
-    <t>Building None</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -550,148 +549,151 @@
     <t>pkamal@usgbc.org</t>
   </si>
   <si>
+    <t>Card Last</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brinkin </t>
+  </si>
+  <si>
+    <t>Sera</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>8553463375</t>
+  </si>
+  <si>
+    <t>Other_Meter Name</t>
+  </si>
+  <si>
+    <t>Test Other Meter</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>98734</t>
+  </si>
+  <si>
+    <t>US Building Other 775828</t>
+  </si>
+  <si>
+    <t>Above ground</t>
+  </si>
+  <si>
+    <t>is_station2</t>
+  </si>
+  <si>
+    <t>ProjectName</t>
+  </si>
+  <si>
+    <t>ProjectType</t>
+  </si>
+  <si>
+    <t>RatingSystem</t>
+  </si>
+  <si>
+    <t>OwnerType</t>
+  </si>
+  <si>
+    <t>OwnerOrganization</t>
+  </si>
+  <si>
+    <t>OwnerEmail</t>
+  </si>
+  <si>
+    <t>LEEDCitiesTestProject 161386</t>
+  </si>
+  <si>
+    <t>OwnerCountry</t>
+  </si>
+  <si>
+    <t>5600</t>
+  </si>
+  <si>
+    <t>4500</t>
+  </si>
+  <si>
+    <t>3388</t>
+  </si>
+  <si>
+    <t>56211</t>
+  </si>
+  <si>
+    <t>312 Wilson Street</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>LEEDCitiesTestProject 11092</t>
+  </si>
+  <si>
+    <t>editArea</t>
+  </si>
+  <si>
+    <t>editPopulation</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>6553</t>
+  </si>
+  <si>
+    <t>3256</t>
+  </si>
+  <si>
+    <t>1623</t>
+  </si>
+  <si>
+    <t>P &amp; C Construction, Inc.</t>
+  </si>
+  <si>
+    <t>$ 5000.00</t>
+  </si>
+  <si>
+    <t>D &amp; A Building Services Inc.</t>
+  </si>
+  <si>
+    <t>$ 250.00</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>ParkDetail</t>
+  </si>
+  <si>
+    <t>http://www.stg.arconline.io</t>
+  </si>
+  <si>
+    <t>Brings the benefits of smart grid thinking to the forefront with a credit that rewards projects for participating in demand response programs</t>
+  </si>
+  <si>
+    <t>B &amp; B Associates, Inc.</t>
+  </si>
+  <si>
+    <t>T &amp; H Engineering, Inc.</t>
+  </si>
+  <si>
+    <t>S &amp; B Engineers and Constructors, Inc</t>
+  </si>
+  <si>
+    <t>K &amp; M Builders, LLC</t>
+  </si>
+  <si>
     <t>$ 1500.00</t>
   </si>
   <si>
-    <t>Card Last</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brinkin </t>
-  </si>
-  <si>
-    <t>Sera</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>8553463375</t>
-  </si>
-  <si>
-    <t>Other_Meter Name</t>
-  </si>
-  <si>
-    <t>Test Other Meter</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>US Building 306051</t>
-  </si>
-  <si>
-    <t>98734</t>
-  </si>
-  <si>
-    <t>US Building Other 775828</t>
-  </si>
-  <si>
-    <t>Above ground</t>
-  </si>
-  <si>
-    <t>is_station2</t>
-  </si>
-  <si>
-    <t>ProjectName</t>
-  </si>
-  <si>
-    <t>ProjectType</t>
-  </si>
-  <si>
-    <t>RatingSystem</t>
-  </si>
-  <si>
-    <t>OwnerType</t>
-  </si>
-  <si>
-    <t>OwnerOrganization</t>
-  </si>
-  <si>
-    <t>OwnerEmail</t>
-  </si>
-  <si>
-    <t>LEEDCitiesTestProject 161386</t>
-  </si>
-  <si>
-    <t>OwnerCountry</t>
-  </si>
-  <si>
-    <t>5600</t>
-  </si>
-  <si>
-    <t>4500</t>
-  </si>
-  <si>
-    <t>3388</t>
-  </si>
-  <si>
-    <t>56211</t>
-  </si>
-  <si>
-    <t>312 Wilson Street</t>
-  </si>
-  <si>
-    <t>Chicago</t>
-  </si>
-  <si>
-    <t>LEEDCitiesTestProject 11092</t>
-  </si>
-  <si>
-    <t>editArea</t>
-  </si>
-  <si>
-    <t>editPopulation</t>
-  </si>
-  <si>
-    <t>4000</t>
-  </si>
-  <si>
-    <t>18000</t>
-  </si>
-  <si>
-    <t>6553</t>
-  </si>
-  <si>
-    <t>3256</t>
-  </si>
-  <si>
-    <t>1623</t>
-  </si>
-  <si>
-    <t>P &amp; C Construction, Inc.</t>
-  </si>
-  <si>
-    <t>$ 5000.00</t>
-  </si>
-  <si>
-    <t>D &amp; A Building Services Inc.</t>
-  </si>
-  <si>
-    <t>$ 250.00</t>
-  </si>
-  <si>
-    <t>Website</t>
-  </si>
-  <si>
-    <t>ParkDetail</t>
-  </si>
-  <si>
-    <t>http://www.stg.arconline.io</t>
-  </si>
-  <si>
-    <t>Brings the benefits of smart grid thinking to the forefront with a credit that rewards projects for participating in demand response programs</t>
-  </si>
-  <si>
-    <t>B &amp; B Associates, Inc.</t>
-  </si>
-  <si>
-    <t>T &amp; H Engineering, Inc.</t>
-  </si>
-  <si>
-    <t>S &amp; B Engineers and Constructors, Inc</t>
-  </si>
-  <si>
-    <t>K &amp; M Builders, LLC</t>
+    <t>US Building LEED v4 138984</t>
+  </si>
+  <si>
+    <t>US Building None 382094</t>
   </si>
 </sst>
 </file>
@@ -749,7 +751,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -761,6 +763,7 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1045,12 +1048,12 @@
   <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="14" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
@@ -1070,10 +1073,11 @@
     <col min="19" max="19" width="13.28515625" customWidth="1" collapsed="1"/>
     <col min="20" max="20" width="13.140625" customWidth="1" collapsed="1"/>
     <col min="21" max="21" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="18.28515625" customWidth="1"/>
+    <col min="22" max="22" width="18.28515625" customWidth="1" collapsed="1"/>
     <col min="24" max="24" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="19" customWidth="1"/>
-    <col min="30" max="30" width="17.85546875" customWidth="1"/>
+    <col min="28" max="28" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="19" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="17.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -1126,7 +1130,7 @@
         <v>42</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>44</v>
@@ -1150,27 +1154,27 @@
         <v>64</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -1185,10 +1189,10 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H2" t="s">
         <v>56</v>
@@ -1206,22 +1210,25 @@
         <v>56</v>
       </c>
       <c r="M2" t="s">
+        <v>125</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>32</v>
       </c>
       <c r="Y2" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z2" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="Z2" s="4" t="s">
-        <v>170</v>
-      </c>
       <c r="AA2" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
+      </c>
+      <c r="AB2" s="11">
+        <v>1500</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -1241,7 +1248,7 @@
         <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>17</v>
@@ -1265,10 +1272,10 @@
         <v>41</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q3" t="s">
         <v>43</v>
@@ -1300,7 +1307,7 @@
         <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>17</v>
@@ -1333,18 +1340,18 @@
         <v>65</v>
       </c>
       <c r="AB4" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC4" t="s">
         <v>212</v>
       </c>
-      <c r="AC4" t="s">
-        <v>215</v>
-      </c>
       <c r="AD4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1359,7 +1366,7 @@
         <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>17</v>
@@ -1386,66 +1393,69 @@
         <v>75</v>
       </c>
       <c r="Y5" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z5" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="Z5" s="4" t="s">
-        <v>170</v>
-      </c>
       <c r="AA5" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
         <v>77</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>78</v>
       </c>
-      <c r="E6" t="s">
-        <v>79</v>
-      </c>
       <c r="F6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="Y6" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z6" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="Z6" s="4" t="s">
-        <v>170</v>
-      </c>
       <c r="AA6" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -1461,6 +1471,344 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
@@ -1484,194 +1832,194 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" t="s">
         <v>140</v>
       </c>
-      <c r="B1" t="s">
-        <v>141</v>
-      </c>
       <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" t="s">
         <v>154</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>155</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>156</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>157</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>158</v>
       </c>
-      <c r="H1" t="s">
-        <v>159</v>
-      </c>
       <c r="I1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J1" t="s">
         <v>162</v>
-      </c>
-      <c r="J1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="G2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="I2" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="G3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="I3" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="G4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="I4" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="G5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="I5" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="G6" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="I6" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1694,32 +2042,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1738,7 +2086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
@@ -1757,31 +2105,31 @@
   <sheetData>
     <row r="1" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" t="s">
         <v>187</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>188</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>189</v>
       </c>
-      <c r="D1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>191</v>
-      </c>
-      <c r="F1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G1" t="s">
-        <v>194</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -1802,10 +2150,10 @@
         <v>29</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>30</v>
@@ -1818,19 +2166,19 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
         <v>87</v>
       </c>
-      <c r="C2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" t="s">
-        <v>88</v>
-      </c>
       <c r="E2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
@@ -1839,48 +2187,48 @@
         <v>56</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L2" t="s">
         <v>56</v>
       </c>
       <c r="M2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>17</v>
@@ -1889,81 +2237,81 @@
         <v>72</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" t="s">
         <v>94</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>95</v>
-      </c>
-      <c r="K3" t="s">
-        <v>96</v>
       </c>
       <c r="L3" t="s">
         <v>72</v>
       </c>
       <c r="M3" t="s">
+        <v>96</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="P3" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" t="s">
         <v>101</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>102</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4" t="s">
         <v>103</v>
       </c>
-      <c r="L4" t="s">
-        <v>83</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="N4" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="P4" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -1981,7 +2329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -2000,36 +2348,36 @@
     <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="10.5703125" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" t="s">
         <v>187</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>188</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>189</v>
       </c>
-      <c r="D1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>191</v>
-      </c>
-      <c r="F1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G1" t="s">
-        <v>194</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -2050,10 +2398,10 @@
         <v>29</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>30</v>
@@ -2066,63 +2414,63 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>107</v>
-      </c>
-      <c r="C2" t="s">
-        <v>108</v>
       </c>
       <c r="D2" t="s">
         <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" t="s">
         <v>109</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" t="s">
         <v>110</v>
       </c>
-      <c r="K2" t="s">
-        <v>103</v>
-      </c>
-      <c r="L2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="P2" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
@@ -2131,7 +2479,7 @@
         <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>17</v>
@@ -2140,51 +2488,51 @@
         <v>56</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J3" t="s">
         <v>114</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>115</v>
-      </c>
-      <c r="K3" t="s">
-        <v>116</v>
       </c>
       <c r="L3" t="s">
         <v>56</v>
       </c>
       <c r="M3" t="s">
+        <v>115</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="P3" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
         <v>118</v>
       </c>
-      <c r="B4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" t="s">
-        <v>119</v>
-      </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>17</v>
@@ -2193,34 +2541,34 @@
         <v>72</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" t="s">
         <v>120</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>121</v>
-      </c>
-      <c r="K4" t="s">
-        <v>122</v>
       </c>
       <c r="L4" t="s">
         <v>72</v>
       </c>
       <c r="M4" t="s">
+        <v>122</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="P4" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2237,8 +2585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2256,19 +2604,19 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" t="s">
         <v>131</v>
       </c>
-      <c r="B1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C1" t="s">
-        <v>132</v>
-      </c>
       <c r="D1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
         <v>18</v>
@@ -2295,24 +2643,24 @@
         <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -2324,39 +2672,37 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J2" t="s">
         <v>56</v>
       </c>
       <c r="K2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>173</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M2" s="9"/>
       <c r="N2" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -2368,39 +2714,37 @@
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J3" t="s">
         <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>173</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M3" s="9"/>
       <c r="N3" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -2412,39 +2756,477 @@
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J4" t="s">
         <v>56</v>
       </c>
       <c r="K4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L4" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="G5" s="1"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="G6" s="1"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
         <v>138</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" s="9"/>
+      <c r="N2" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>173</v>
       </c>
+      <c r="B3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>179</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" t="s">
+        <v>179</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M4" s="9"/>
       <c r="N4" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="G5" s="1"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="G6" s="1"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.5703125" style="5" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" s="9"/>
+      <c r="N2" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>179</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" t="s">
+        <v>179</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -2456,39 +3238,37 @@
         <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J5" t="s">
         <v>56</v>
       </c>
       <c r="K5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>173</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M5" s="9"/>
       <c r="N5" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -2500,22 +3280,20 @@
         <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J6" t="s">
         <v>56</v>
       </c>
       <c r="K6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>173</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M6" s="9"/>
       <c r="N6" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2531,7 +3309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -2546,7 +3324,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
@@ -2554,42 +3332,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
         <v>129</v>
-      </c>
-      <c r="B2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s">
         <v>129</v>
-      </c>
-      <c r="B3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
         <v>129</v>
-      </c>
-      <c r="B4" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s">
         <v>129</v>
-      </c>
-      <c r="B5" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" t="s">
         <v>129</v>
-      </c>
-      <c r="B6" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2597,7 +3375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -2663,342 +3441,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ARCProject/ArcTest.xlsx
+++ b/ARCProject/ArcTest.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="1" windowHeight="6210" windowWidth="14835" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6210" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="NewBuildingProject" r:id="rId1" sheetId="1"/>
-    <sheet name="BTeam" r:id="rId2" sheetId="10"/>
-    <sheet name="NewCityProject" r:id="rId3" sheetId="5"/>
-    <sheet name="NewCommunityProject" r:id="rId4" sheetId="6"/>
-    <sheet name="Payment" r:id="rId5" sheetId="2"/>
-    <sheet name="Login" r:id="rId6" sheetId="3"/>
-    <sheet name="Add Meter" r:id="rId7" sheetId="4"/>
-    <sheet name="BEnergy" r:id="rId8" sheetId="7"/>
-    <sheet name="BWater" r:id="rId9" sheetId="8"/>
-    <sheet name="BWaste" r:id="rId10" sheetId="9"/>
+    <sheet name="NewBuildingProject" sheetId="1" r:id="rId1"/>
+    <sheet name="BTeam" sheetId="10" r:id="rId2"/>
+    <sheet name="NewCityProject" sheetId="5" r:id="rId3"/>
+    <sheet name="NewCommunityProject" sheetId="6" r:id="rId4"/>
+    <sheet name="Payment" sheetId="2" r:id="rId5"/>
+    <sheet name="Login" sheetId="3" r:id="rId6"/>
+    <sheet name="Add Meter" sheetId="4" r:id="rId7"/>
+    <sheet name="BEnergy" sheetId="7" r:id="rId8"/>
+    <sheet name="BWater" sheetId="8" r:id="rId9"/>
+    <sheet name="BWaste" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="H1:R18"/>
+  <oleSize ref="A1:F18"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="224">
   <si>
     <t>Project Name</t>
   </si>
@@ -361,9 +361,6 @@
     <t>67909</t>
   </si>
   <si>
-    <t>Community Other</t>
-  </si>
-  <si>
     <t>13171</t>
   </si>
   <si>
@@ -376,9 +373,6 @@
     <t>76542</t>
   </si>
   <si>
-    <t>Community None</t>
-  </si>
-  <si>
     <t>Investor: ROEC</t>
   </si>
   <si>
@@ -698,6 +692,15 @@
   </si>
   <si>
     <t>CommunityNone 593800</t>
+  </si>
+  <si>
+    <t>US Building LEED v4 273685</t>
+  </si>
+  <si>
+    <t>US Building LEED v4 329983</t>
+  </si>
+  <si>
+    <t>US Building LEED v4 622311</t>
   </si>
 </sst>
 </file>
@@ -707,7 +710,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -752,29 +755,29 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="15" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="8" quotePrefix="1" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="8" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -791,10 +794,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -829,7 +832,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -864,7 +867,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -958,21 +961,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -989,7 +992,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1041,23 +1044,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.70703125" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="13.28515625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
@@ -1079,7 +1082,7 @@
     <col min="21" max="21" customWidth="true" width="15.5703125" collapsed="true"/>
     <col min="22" max="22" customWidth="true" width="18.28515625" collapsed="true"/>
     <col min="24" max="24" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="9.80078125" collapsed="true"/>
     <col min="29" max="29" customWidth="true" width="19.0" collapsed="true"/>
     <col min="30" max="30" customWidth="true" width="17.85546875" collapsed="true"/>
   </cols>
@@ -1134,7 +1137,7 @@
         <v>42</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>44</v>
@@ -1158,27 +1161,27 @@
         <v>64</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -1193,10 +1196,10 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H2" t="s">
         <v>56</v>
@@ -1214,25 +1217,25 @@
         <v>56</v>
       </c>
       <c r="M2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>32</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB2" s="11">
-        <v>1500</v>
+        <v>165</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -1252,7 +1255,7 @@
         <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>17</v>
@@ -1276,10 +1279,10 @@
         <v>41</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q3" t="s">
         <v>43</v>
@@ -1344,18 +1347,18 @@
         <v>65</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AC4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AD4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1370,7 +1373,7 @@
         <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>17</v>
@@ -1397,21 +1400,21 @@
         <v>75</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AB5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1426,7 +1429,7 @@
         <v>78</v>
       </c>
       <c r="F6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>17</v>
@@ -1453,33 +1456,33 @@
         <v>84</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AB6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G5"/>
-    <hyperlink r:id="rId2" ref="G6"/>
-    <hyperlink r:id="rId3" ref="G4"/>
-    <hyperlink r:id="rId4" ref="G3"/>
+    <hyperlink ref="G5" r:id="rId1"/>
+    <hyperlink ref="G6" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G3" r:id="rId4"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="F6" sqref="A6:XFD6"/>
@@ -1501,204 +1504,204 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" t="s">
         <v>151</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>152</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>153</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>154</v>
       </c>
-      <c r="G1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H1" t="s">
-        <v>156</v>
-      </c>
       <c r="I1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="D4" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="D6" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="G6" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1711,51 +1714,51 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
-    <hyperlink r:id="rId3" ref="A4"/>
-    <hyperlink r:id="rId4" ref="A5"/>
-    <hyperlink r:id="rId5" ref="A6"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1775,25 +1778,25 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" t="s">
         <v>181</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>182</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>183</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>184</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>185</v>
-      </c>
-      <c r="F1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G1" t="s">
-        <v>187</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
@@ -1820,10 +1823,10 @@
         <v>29</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>30</v>
@@ -1836,7 +1839,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
@@ -1848,7 +1851,7 @@
         <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
@@ -1857,39 +1860,39 @@
         <v>56</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>90</v>
       </c>
       <c r="J2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L2" t="s">
         <v>56</v>
       </c>
       <c r="M2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="R2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
@@ -1910,7 +1913,7 @@
         <v>72</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>92</v>
@@ -1931,18 +1934,18 @@
         <v>96</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="R3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -1954,7 +1957,7 @@
         <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>17</v>
@@ -1963,7 +1966,7 @@
         <v>82</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>99</v>
@@ -1984,34 +1987,34 @@
         <v>103</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F4"/>
-    <hyperlink r:id="rId2" ref="F2"/>
-    <hyperlink r:id="rId3" ref="F3"/>
+    <hyperlink ref="F4" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="F3" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="21.28515625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="21.85546875" collapsed="true"/>
@@ -2024,30 +2027,30 @@
     <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
     <col min="13" max="13" customWidth="true" width="10.5703125" collapsed="true"/>
     <col min="14" max="14" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="9.89453125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" t="s">
         <v>181</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>182</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>183</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>184</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>185</v>
-      </c>
-      <c r="F1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G1" t="s">
-        <v>187</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
@@ -2074,10 +2077,10 @@
         <v>29</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>30</v>
@@ -2090,7 +2093,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
         <v>104</v>
@@ -2111,7 +2114,7 @@
         <v>82</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>106</v>
@@ -2132,18 +2135,18 @@
         <v>109</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
         <v>104</v>
@@ -2155,7 +2158,7 @@
         <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>17</v>
@@ -2164,39 +2167,39 @@
         <v>56</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" t="s">
         <v>111</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>112</v>
-      </c>
-      <c r="K3" t="s">
-        <v>113</v>
       </c>
       <c r="L3" t="s">
         <v>56</v>
       </c>
       <c r="M3" t="s">
+        <v>112</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="P3" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B4" t="s">
         <v>104</v>
@@ -2205,7 +2208,7 @@
         <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
         <v>98</v>
@@ -2217,49 +2220,49 @@
         <v>72</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" t="s">
         <v>117</v>
-      </c>
-      <c r="J4" t="s">
-        <v>118</v>
-      </c>
-      <c r="K4" t="s">
-        <v>119</v>
       </c>
       <c r="L4" t="s">
         <v>72</v>
       </c>
       <c r="M4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F4"/>
-    <hyperlink r:id="rId2" ref="F3"/>
-    <hyperlink r:id="rId3" ref="F2"/>
+    <hyperlink ref="F4" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
@@ -2280,19 +2283,19 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" t="s">
         <v>129</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>131</v>
-      </c>
-      <c r="E1" t="s">
-        <v>133</v>
       </c>
       <c r="F1" t="s">
         <v>18</v>
@@ -2319,24 +2322,24 @@
         <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -2348,37 +2351,37 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J2" t="s">
         <v>56</v>
       </c>
       <c r="K2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -2390,37 +2393,37 @@
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J3" t="s">
         <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -2432,37 +2435,37 @@
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J4" t="s">
         <v>56</v>
       </c>
       <c r="K4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -2474,37 +2477,37 @@
         <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J5" t="s">
         <v>56</v>
       </c>
       <c r="K5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -2516,38 +2519,38 @@
         <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J6" t="s">
         <v>56</v>
       </c>
       <c r="K6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G2"/>
-    <hyperlink r:id="rId2" ref="G3"/>
-    <hyperlink r:id="rId3" ref="G4"/>
-    <hyperlink r:id="rId4" ref="G5"/>
-    <hyperlink r:id="rId5" ref="G6"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -2560,7 +2563,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
@@ -2568,52 +2571,52 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -2674,14 +2677,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
@@ -2700,165 +2703,165 @@
         <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" t="s">
         <v>146</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>147</v>
-      </c>
-      <c r="G1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="F2" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="F3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="F4" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="F5" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="F6" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>145</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
@@ -2879,140 +2882,140 @@
         <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" t="s">
         <v>146</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>147</v>
-      </c>
-      <c r="F1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="E2" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="E4" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="E5" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="E6" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>145</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ARCProject/ArcTest.xlsx
+++ b/ARCProject/ArcTest.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\Abhishek\ARCProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6210" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="7110" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewBuildingProject" sheetId="1" r:id="rId1"/>
@@ -13,15 +18,16 @@
     <sheet name="NewCommunityProject" sheetId="6" r:id="rId4"/>
     <sheet name="Payment" sheetId="2" r:id="rId5"/>
     <sheet name="Login" sheetId="3" r:id="rId6"/>
-    <sheet name="Add Meter" sheetId="4" r:id="rId7"/>
-    <sheet name="BEnergy" sheetId="7" r:id="rId8"/>
-    <sheet name="BWater" sheetId="8" r:id="rId9"/>
-    <sheet name="BWaste" sheetId="9" r:id="rId10"/>
+    <sheet name="CDataInput" sheetId="12" r:id="rId7"/>
+    <sheet name="Add Meter" sheetId="4" r:id="rId8"/>
+    <sheet name="BEnergy" sheetId="7" r:id="rId9"/>
+    <sheet name="BWater" sheetId="8" r:id="rId10"/>
+    <sheet name="BWaste" sheetId="9" r:id="rId11"/>
+    <sheet name="NewParkingProject" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F18"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="290">
   <si>
     <t>Project Name</t>
   </si>
@@ -166,9 +172,6 @@
     <t>annual_ridership</t>
   </si>
   <si>
-    <t>200000</t>
-  </si>
-  <si>
     <t>week_opr_hrs</t>
   </si>
   <si>
@@ -187,12 +190,6 @@
     <t>45</t>
   </si>
   <si>
-    <t>Building LEED for transit</t>
-  </si>
-  <si>
-    <t>Building Parksmart</t>
-  </si>
-  <si>
     <t>Parksmart</t>
   </si>
   <si>
@@ -589,15 +586,6 @@
     <t>OwnerCountry</t>
   </si>
   <si>
-    <t>5600</t>
-  </si>
-  <si>
-    <t>4500</t>
-  </si>
-  <si>
-    <t>3388</t>
-  </si>
-  <si>
     <t>56211</t>
   </si>
   <si>
@@ -607,30 +595,15 @@
     <t>Chicago</t>
   </si>
   <si>
-    <t>LEEDCitiesTestProject 11092</t>
-  </si>
-  <si>
     <t>editArea</t>
   </si>
   <si>
     <t>editPopulation</t>
   </si>
   <si>
-    <t>4000</t>
-  </si>
-  <si>
     <t>18000</t>
   </si>
   <si>
-    <t>6553</t>
-  </si>
-  <si>
-    <t>3256</t>
-  </si>
-  <si>
-    <t>1623</t>
-  </si>
-  <si>
     <t>P &amp; C Construction, Inc.</t>
   </si>
   <si>
@@ -670,21 +643,12 @@
     <t>$ 1500.00</t>
   </si>
   <si>
-    <t>US Building LEED v4 138984</t>
-  </si>
-  <si>
     <t>US Building None 382094</t>
   </si>
   <si>
     <t>US Building Other 271067</t>
   </si>
   <si>
-    <t>CitiesNone 89625</t>
-  </si>
-  <si>
-    <t>CitiesOther 333362</t>
-  </si>
-  <si>
     <t>CommunityLeed 35133</t>
   </si>
   <si>
@@ -694,23 +658,263 @@
     <t>CommunityNone 593800</t>
   </si>
   <si>
-    <t>US Building LEED v4 273685</t>
-  </si>
-  <si>
-    <t>US Building LEED v4 329983</t>
-  </si>
-  <si>
-    <t>US Building LEED v4 622311</t>
+    <t>US Building LEED v4 355214</t>
+  </si>
+  <si>
+    <t>TONS</t>
+  </si>
+  <si>
+    <t>LBS</t>
+  </si>
+  <si>
+    <t>KBTU</t>
+  </si>
+  <si>
+    <t>MTCO2e</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>ADeatailsUnitReading5</t>
+  </si>
+  <si>
+    <t>ADeatailsUnitReading4</t>
+  </si>
+  <si>
+    <t>ADeatailsUnitReading3</t>
+  </si>
+  <si>
+    <t>ADeatailsUnitReading2</t>
+  </si>
+  <si>
+    <t>ADeatailsUnitReading1</t>
+  </si>
+  <si>
+    <t>ADeatailsValueReading5</t>
+  </si>
+  <si>
+    <t>ADeatailsValueReading4</t>
+  </si>
+  <si>
+    <t>ADeatailsValueReading3</t>
+  </si>
+  <si>
+    <t>ADeatailsValueReading2</t>
+  </si>
+  <si>
+    <t>ADeatailsValueReading1</t>
+  </si>
+  <si>
+    <t>HPReading5</t>
+  </si>
+  <si>
+    <t>HPReading4</t>
+  </si>
+  <si>
+    <t>HPReading3</t>
+  </si>
+  <si>
+    <t>HPReading2</t>
+  </si>
+  <si>
+    <t>HPReading1</t>
+  </si>
+  <si>
+    <t>TReading5</t>
+  </si>
+  <si>
+    <t>TReading4</t>
+  </si>
+  <si>
+    <t>TReading3</t>
+  </si>
+  <si>
+    <t>TReading2</t>
+  </si>
+  <si>
+    <t>TReading1</t>
+  </si>
+  <si>
+    <t>wastediversion5</t>
+  </si>
+  <si>
+    <t>wastediversion4</t>
+  </si>
+  <si>
+    <t>wastediversion3</t>
+  </si>
+  <si>
+    <t>wastediversion2</t>
+  </si>
+  <si>
+    <t>wastediversion1</t>
+  </si>
+  <si>
+    <t>wastegeneration5</t>
+  </si>
+  <si>
+    <t>wastegeneration4</t>
+  </si>
+  <si>
+    <t>wastegeneration3</t>
+  </si>
+  <si>
+    <t>wastegeneration2</t>
+  </si>
+  <si>
+    <t>wastegeneration1</t>
+  </si>
+  <si>
+    <t>WaterReading5</t>
+  </si>
+  <si>
+    <t>WaterReading4</t>
+  </si>
+  <si>
+    <t>WaterReading3</t>
+  </si>
+  <si>
+    <t>WaterReading2</t>
+  </si>
+  <si>
+    <t>WaterReading1</t>
+  </si>
+  <si>
+    <t>EReading5</t>
+  </si>
+  <si>
+    <t>EReading4</t>
+  </si>
+  <si>
+    <t>EReading3</t>
+  </si>
+  <si>
+    <t>EReading2</t>
+  </si>
+  <si>
+    <t>EReading1</t>
+  </si>
+  <si>
+    <t>Parking Spaces</t>
+  </si>
+  <si>
+    <t>parking structure</t>
+  </si>
+  <si>
+    <t>Data Commisioned</t>
+  </si>
+  <si>
+    <t>parkDetail</t>
+  </si>
+  <si>
+    <t>US Building Parking 346951</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>2015-02-04</t>
+  </si>
+  <si>
+    <t>2101 L St NW #500</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>20037</t>
+  </si>
+  <si>
+    <t>http://www.parking-net.com</t>
+  </si>
+  <si>
+    <t>When assigned parking is provided, designated accessible parking .</t>
+  </si>
+  <si>
+    <t>US Building Parking 322031</t>
+  </si>
+  <si>
+    <t>CitiesLeed 386677</t>
+  </si>
+  <si>
+    <t>CitiesNone 309844</t>
+  </si>
+  <si>
+    <t>CitiesOther 492610</t>
+  </si>
+  <si>
+    <t>TFulltimestaff</t>
+  </si>
+  <si>
+    <t>TWeeklyOperatinghours</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>US Building Aboveground 704159</t>
+  </si>
+  <si>
+    <t>TMAnnualRidership</t>
+  </si>
+  <si>
+    <t>TAveragetime</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>US Building Parking 663471</t>
+  </si>
+  <si>
+    <t>655</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>338</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -736,13 +940,69 @@
       <color indexed="16"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -758,7 +1018,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -771,12 +1031,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1052,42 +1340,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD6"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="25.70703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="9" max="9" style="2" width="9.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="14" max="14" style="2" width="9.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="5" width="12.140625" collapsed="true"/>
-    <col min="16" max="17" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="9.80078125" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="1" max="1" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.140625" style="2" collapsed="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.140625" style="2" collapsed="1"/>
+    <col min="15" max="15" width="12.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="19" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="16.140625" customWidth="1"/>
+    <col min="32" max="32" width="16" customWidth="1"/>
+    <col min="33" max="33" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1098,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -1137,51 +1428,63 @@
         <v>42</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>44</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -1196,13 +1499,13 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>28</v>
@@ -1214,33 +1517,33 @@
         <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>32</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AB2" s="11" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>52</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>277</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1255,7 +1558,7 @@
         <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>17</v>
@@ -1279,193 +1582,205 @@
         <v>41</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q3" t="s">
         <v>43</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>261</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="V4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="L4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="W4" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="X4" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AB4" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>203</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>206</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>215</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
         <v>66</v>
       </c>
-      <c r="D5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" t="s">
-        <v>69</v>
-      </c>
       <c r="F5" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="N5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="Y5" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AB5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="N6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="Y6" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AB6" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -1482,6 +1797,167 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -1490,211 +1966,582 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" t="s">
         <v>149</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>150</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>151</v>
       </c>
-      <c r="F1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>154</v>
       </c>
-      <c r="I1" t="s">
-        <v>157</v>
-      </c>
       <c r="J1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="E2" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="J2" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="J3" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="E4" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="J4" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="E5" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="J5" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="E6" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="G6" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="J6" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:V7">
+    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1709,37 +2556,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1758,51 +2605,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="11" max="12" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" t="s">
         <v>179</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>180</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>181</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>182</v>
-      </c>
-      <c r="E1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G1" t="s">
-        <v>185</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -1823,10 +2670,10 @@
         <v>29</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>30</v>
@@ -1838,159 +2685,159 @@
       <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>216</v>
+      <c r="A2" s="24" t="s">
+        <v>270</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>186</v>
+        <v>287</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K2" t="s">
+        <v>185</v>
+      </c>
+      <c r="L2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="R2" t="s">
         <v>190</v>
       </c>
-      <c r="K2" t="s">
-        <v>191</v>
-      </c>
-      <c r="L2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M2" t="s">
-        <v>121</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="R2" t="s">
-        <v>201</v>
-      </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>217</v>
+      <c r="A3" s="24" t="s">
+        <v>272</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>187</v>
+        <v>288</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" t="s">
         <v>92</v>
       </c>
-      <c r="J3" t="s">
+      <c r="N3" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="K3" t="s">
+      <c r="P3" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="R3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
         <v>94</v>
       </c>
-      <c r="L3" t="s">
-        <v>72</v>
-      </c>
-      <c r="M3" t="s">
-        <v>95</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="R3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>97</v>
-      </c>
       <c r="E4" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="J4" t="s">
-        <v>100</v>
-      </c>
-      <c r="K4" t="s">
-        <v>101</v>
-      </c>
-      <c r="L4" t="s">
-        <v>82</v>
-      </c>
-      <c r="M4" t="s">
-        <v>102</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2008,55 +2855,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="11" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" t="s">
         <v>179</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>180</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>181</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>182</v>
-      </c>
-      <c r="E1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G1" t="s">
-        <v>185</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -2077,10 +2924,10 @@
         <v>29</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>30</v>
@@ -2093,161 +2940,161 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>197</v>
+        <v>283</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K2" t="s">
-        <v>101</v>
-      </c>
-      <c r="L2" t="s">
-        <v>82</v>
-      </c>
-      <c r="M2" t="s">
-        <v>108</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="P2" s="4" t="s">
-        <v>195</v>
+        <v>286</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>198</v>
+        <v>284</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="J3" t="s">
-        <v>111</v>
-      </c>
-      <c r="K3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" t="s">
-        <v>112</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="P3" s="4" t="s">
-        <v>195</v>
+        <v>286</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>199</v>
+        <v>285</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="s">
         <v>115</v>
       </c>
-      <c r="J4" t="s">
+      <c r="N4" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="K4" t="s">
-        <v>117</v>
-      </c>
-      <c r="L4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4" t="s">
-        <v>118</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="P4" s="4" t="s">
-        <v>195</v>
+        <v>286</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2265,37 +3112,37 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="3" max="5" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="5" width="13.5703125" collapsed="true"/>
+    <col min="1" max="2" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.5703125" style="5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
         <v>126</v>
       </c>
-      <c r="B1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" t="s">
-        <v>129</v>
-      </c>
       <c r="E1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F1" t="s">
         <v>18</v>
@@ -2322,24 +3169,24 @@
         <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -2351,37 +3198,37 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -2393,37 +3240,37 @@
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -2435,37 +3282,37 @@
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -2477,37 +3324,37 @@
         <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -2519,20 +3366,20 @@
         <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2558,12 +3405,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="1" max="1" width="19.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
@@ -2571,42 +3418,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2615,6 +3462,646 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO5"/>
+  <sheetViews>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="20.140625" customWidth="1"/>
+    <col min="32" max="32" width="24.5703125" customWidth="1"/>
+    <col min="33" max="33" width="26" customWidth="1"/>
+    <col min="41" max="41" width="15.7109375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="Z1" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA1" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB1" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC1" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD1" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE1" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF1" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="AG1" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH1" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI1" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ1" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="AK1" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="AL1" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM1" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="AN1" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="AO1" s="14"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.98</v>
+      </c>
+      <c r="B2">
+        <v>0.66</v>
+      </c>
+      <c r="C2">
+        <v>1.22</v>
+      </c>
+      <c r="D2">
+        <v>0.99</v>
+      </c>
+      <c r="E2">
+        <v>0.33</v>
+      </c>
+      <c r="F2">
+        <v>0.98</v>
+      </c>
+      <c r="G2">
+        <v>0.66</v>
+      </c>
+      <c r="H2">
+        <v>1.22</v>
+      </c>
+      <c r="I2">
+        <v>0.99</v>
+      </c>
+      <c r="J2">
+        <v>0.33</v>
+      </c>
+      <c r="K2">
+        <v>0.98</v>
+      </c>
+      <c r="L2">
+        <v>0.66</v>
+      </c>
+      <c r="M2">
+        <v>1.22</v>
+      </c>
+      <c r="N2">
+        <v>0.99</v>
+      </c>
+      <c r="O2">
+        <v>0.33</v>
+      </c>
+      <c r="P2">
+        <v>0.98</v>
+      </c>
+      <c r="Q2">
+        <v>0.66</v>
+      </c>
+      <c r="R2">
+        <v>1.22</v>
+      </c>
+      <c r="S2">
+        <v>0.99</v>
+      </c>
+      <c r="T2">
+        <v>0.33</v>
+      </c>
+      <c r="U2" s="13">
+        <v>22</v>
+      </c>
+      <c r="V2" s="13">
+        <v>34</v>
+      </c>
+      <c r="W2" s="13">
+        <v>53</v>
+      </c>
+      <c r="X2" s="13">
+        <v>34</v>
+      </c>
+      <c r="Y2" s="13">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="13">
+        <v>43</v>
+      </c>
+      <c r="AA2" s="13">
+        <v>32</v>
+      </c>
+      <c r="AB2" s="13">
+        <v>33</v>
+      </c>
+      <c r="AC2" s="13">
+        <v>22</v>
+      </c>
+      <c r="AD2" s="13">
+        <v>22</v>
+      </c>
+      <c r="AE2" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF2" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG2" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH2" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI2" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.98</v>
+      </c>
+      <c r="B3">
+        <v>0.66</v>
+      </c>
+      <c r="C3">
+        <v>1.22</v>
+      </c>
+      <c r="D3">
+        <v>0.99</v>
+      </c>
+      <c r="E3">
+        <v>0.33</v>
+      </c>
+      <c r="F3">
+        <v>0.98</v>
+      </c>
+      <c r="G3">
+        <v>0.66</v>
+      </c>
+      <c r="H3">
+        <v>1.22</v>
+      </c>
+      <c r="I3">
+        <v>0.99</v>
+      </c>
+      <c r="J3">
+        <v>0.33</v>
+      </c>
+      <c r="K3">
+        <v>0.98</v>
+      </c>
+      <c r="L3">
+        <v>0.66</v>
+      </c>
+      <c r="M3">
+        <v>1.22</v>
+      </c>
+      <c r="N3">
+        <v>0.99</v>
+      </c>
+      <c r="O3">
+        <v>0.33</v>
+      </c>
+      <c r="P3">
+        <v>0.98</v>
+      </c>
+      <c r="Q3">
+        <v>0.66</v>
+      </c>
+      <c r="R3">
+        <v>1.22</v>
+      </c>
+      <c r="S3">
+        <v>0.99</v>
+      </c>
+      <c r="T3">
+        <v>0.33</v>
+      </c>
+      <c r="U3" s="13">
+        <v>22</v>
+      </c>
+      <c r="V3" s="13">
+        <v>34</v>
+      </c>
+      <c r="W3" s="13">
+        <v>53</v>
+      </c>
+      <c r="X3" s="13">
+        <v>34</v>
+      </c>
+      <c r="Y3" s="13">
+        <v>34</v>
+      </c>
+      <c r="Z3" s="13">
+        <v>43</v>
+      </c>
+      <c r="AA3" s="13">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="13">
+        <v>33</v>
+      </c>
+      <c r="AC3" s="13">
+        <v>22</v>
+      </c>
+      <c r="AD3" s="13">
+        <v>22</v>
+      </c>
+      <c r="AE3" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF3" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG3" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH3" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI3" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM3" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN3" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.98</v>
+      </c>
+      <c r="B4">
+        <v>0.66</v>
+      </c>
+      <c r="C4">
+        <v>1.22</v>
+      </c>
+      <c r="D4">
+        <v>0.99</v>
+      </c>
+      <c r="E4">
+        <v>0.33</v>
+      </c>
+      <c r="F4">
+        <v>0.98</v>
+      </c>
+      <c r="G4">
+        <v>0.66</v>
+      </c>
+      <c r="H4">
+        <v>1.22</v>
+      </c>
+      <c r="I4">
+        <v>0.99</v>
+      </c>
+      <c r="J4">
+        <v>0.33</v>
+      </c>
+      <c r="K4">
+        <v>0.98</v>
+      </c>
+      <c r="L4">
+        <v>0.66</v>
+      </c>
+      <c r="M4">
+        <v>1.22</v>
+      </c>
+      <c r="N4">
+        <v>0.99</v>
+      </c>
+      <c r="O4">
+        <v>0.33</v>
+      </c>
+      <c r="P4">
+        <v>0.98</v>
+      </c>
+      <c r="Q4">
+        <v>0.66</v>
+      </c>
+      <c r="R4">
+        <v>1.22</v>
+      </c>
+      <c r="S4">
+        <v>0.99</v>
+      </c>
+      <c r="T4">
+        <v>0.33</v>
+      </c>
+      <c r="U4" s="13">
+        <v>22</v>
+      </c>
+      <c r="V4" s="13">
+        <v>34</v>
+      </c>
+      <c r="W4" s="13">
+        <v>53</v>
+      </c>
+      <c r="X4" s="13">
+        <v>34</v>
+      </c>
+      <c r="Y4" s="13">
+        <v>34</v>
+      </c>
+      <c r="Z4" s="13">
+        <v>43</v>
+      </c>
+      <c r="AA4" s="13">
+        <v>32</v>
+      </c>
+      <c r="AB4" s="13">
+        <v>33</v>
+      </c>
+      <c r="AC4" s="13">
+        <v>22</v>
+      </c>
+      <c r="AD4" s="13">
+        <v>22</v>
+      </c>
+      <c r="AE4" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF4" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG4" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH4" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI4" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM4" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN4" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.98</v>
+      </c>
+      <c r="B5">
+        <v>0.66</v>
+      </c>
+      <c r="C5">
+        <v>1.22</v>
+      </c>
+      <c r="D5">
+        <v>0.99</v>
+      </c>
+      <c r="E5">
+        <v>0.33</v>
+      </c>
+      <c r="F5">
+        <v>0.98</v>
+      </c>
+      <c r="G5">
+        <v>0.66</v>
+      </c>
+      <c r="H5">
+        <v>1.22</v>
+      </c>
+      <c r="I5">
+        <v>0.99</v>
+      </c>
+      <c r="J5">
+        <v>0.33</v>
+      </c>
+      <c r="K5">
+        <v>0.98</v>
+      </c>
+      <c r="L5">
+        <v>0.66</v>
+      </c>
+      <c r="M5">
+        <v>1.22</v>
+      </c>
+      <c r="N5">
+        <v>0.99</v>
+      </c>
+      <c r="O5">
+        <v>0.33</v>
+      </c>
+      <c r="P5">
+        <v>0.98</v>
+      </c>
+      <c r="Q5">
+        <v>0.66</v>
+      </c>
+      <c r="R5">
+        <v>1.22</v>
+      </c>
+      <c r="S5">
+        <v>0.99</v>
+      </c>
+      <c r="T5">
+        <v>0.33</v>
+      </c>
+      <c r="U5" s="13">
+        <v>22</v>
+      </c>
+      <c r="V5" s="13">
+        <v>34</v>
+      </c>
+      <c r="W5" s="13">
+        <v>53</v>
+      </c>
+      <c r="X5" s="13">
+        <v>34</v>
+      </c>
+      <c r="Y5" s="13">
+        <v>34</v>
+      </c>
+      <c r="Z5" s="13">
+        <v>43</v>
+      </c>
+      <c r="AA5" s="13">
+        <v>32</v>
+      </c>
+      <c r="AB5" s="13">
+        <v>33</v>
+      </c>
+      <c r="AC5" s="13">
+        <v>22</v>
+      </c>
+      <c r="AD5" s="13">
+        <v>22</v>
+      </c>
+      <c r="AE5" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF5" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG5" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH5" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI5" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AK5" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="AL5" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM5" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN5" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -2624,8 +4111,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="1" max="1" width="14" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2682,7 +4169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -2692,10 +4179,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2703,316 +4190,155 @@
         <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" t="s">
         <v>144</v>
-      </c>
-      <c r="F1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="G2" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="G3" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="G4" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="G5" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="G6" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.5703125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/ARCProject/ArcTest.xlsx
+++ b/ARCProject/ArcTest.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\Abhishek\ARCProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\Project\ARCProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="7110" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="7110"/>
   </bookViews>
   <sheets>
     <sheet name="NewBuildingProject" sheetId="1" r:id="rId1"/>
@@ -658,9 +658,6 @@
     <t>CommunityNone 593800</t>
   </si>
   <si>
-    <t>US Building LEED v4 355214</t>
-  </si>
-  <si>
     <t>TONS</t>
   </si>
   <si>
@@ -905,6 +902,9 @@
   </si>
   <si>
     <t>338</t>
+  </si>
+  <si>
+    <t>US Building LEED v4 617242</t>
   </si>
 </sst>
 </file>
@@ -1342,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AE9" sqref="AE9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,21 +1470,21 @@
         <v>194</v>
       </c>
       <c r="AE1" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AG1" t="s">
         <v>278</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>273</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>279</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>289</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1591,7 +1591,7 @@
         <v>43</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S3" s="4" t="s">
         <v>46</v>
@@ -1603,21 +1603,21 @@
         <v>50</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF3" s="4" t="s">
         <v>162</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -2208,13 +2208,13 @@
         <v>6</v>
       </c>
       <c r="G1" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>259</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>8</v>
@@ -2235,12 +2235,12 @@
         <v>193</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>13</v>
@@ -2258,19 +2258,19 @@
         <v>53</v>
       </c>
       <c r="G2" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="K2" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>53</v>
@@ -2279,18 +2279,18 @@
         <v>118</v>
       </c>
       <c r="N2" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>267</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
@@ -2308,19 +2308,19 @@
         <v>53</v>
       </c>
       <c r="G3" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="K3" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>53</v>
@@ -2329,18 +2329,18 @@
         <v>118</v>
       </c>
       <c r="N3" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="O3" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="P3" s="12" t="s">
         <v>267</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
@@ -2358,19 +2358,19 @@
         <v>53</v>
       </c>
       <c r="G4" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="I4" s="12" t="s">
+      <c r="J4" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="K4" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>53</v>
@@ -2379,18 +2379,18 @@
         <v>118</v>
       </c>
       <c r="N4" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="O4" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="P4" s="12" t="s">
         <v>267</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
@@ -2408,19 +2408,19 @@
         <v>53</v>
       </c>
       <c r="G5" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="I5" s="12" t="s">
+      <c r="J5" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="K5" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>53</v>
@@ -2429,18 +2429,18 @@
         <v>118</v>
       </c>
       <c r="N5" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="O5" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="P5" s="12" t="s">
         <v>267</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -2458,19 +2458,19 @@
         <v>53</v>
       </c>
       <c r="G6" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="I6" s="12" t="s">
+      <c r="J6" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="K6" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>53</v>
@@ -2479,18 +2479,18 @@
         <v>118</v>
       </c>
       <c r="N6" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="O6" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="P6" s="12" t="s">
         <v>267</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
@@ -2508,19 +2508,19 @@
         <v>53</v>
       </c>
       <c r="G7" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="I7" s="12" t="s">
+      <c r="J7" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="K7" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>53</v>
@@ -2529,13 +2529,13 @@
         <v>118</v>
       </c>
       <c r="N7" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="O7" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="P7" s="12" t="s">
         <v>267</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2605,7 +2605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B2" t="s">
         <v>83</v>
@@ -2707,7 +2707,7 @@
         <v>53</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>87</v>
@@ -2728,7 +2728,7 @@
         <v>183</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>188</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B3" t="s">
         <v>83</v>
@@ -2760,7 +2760,7 @@
         <v>69</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>89</v>
@@ -2781,7 +2781,7 @@
         <v>93</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>188</v>
@@ -2792,7 +2792,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B4" t="s">
         <v>83</v>
@@ -2813,7 +2813,7 @@
         <v>79</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>96</v>
@@ -2834,7 +2834,7 @@
         <v>100</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>188</v>
@@ -2961,7 +2961,7 @@
         <v>79</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>103</v>
@@ -2982,7 +2982,7 @@
         <v>106</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>188</v>
@@ -3014,7 +3014,7 @@
         <v>53</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>107</v>
@@ -3035,7 +3035,7 @@
         <v>110</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>188</v>
@@ -3067,7 +3067,7 @@
         <v>69</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>112</v>
@@ -3088,7 +3088,7 @@
         <v>116</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>188</v>
@@ -3486,124 +3486,124 @@
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N1" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S1" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T1" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="U1" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="V1" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="W1" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="X1" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Y1" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Z1" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AA1" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AB1" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AC1" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AD1" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AE1" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF1" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AG1" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AH1" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AI1" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AJ1" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK1" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL1" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AM1" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AN1" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AO1" s="14"/>
     </row>
@@ -3699,34 +3699,34 @@
         <v>22</v>
       </c>
       <c r="AE2" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF2" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AG2" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AH2" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AI2" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AL2" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM2" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="AM2" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="AN2" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
@@ -3821,34 +3821,34 @@
         <v>22</v>
       </c>
       <c r="AE3" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF3" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AG3" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AH3" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AI3" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AJ3" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AL3" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM3" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="AM3" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="AN3" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
@@ -3943,34 +3943,34 @@
         <v>22</v>
       </c>
       <c r="AE4" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF4" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AG4" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AH4" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AI4" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AJ4" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AK4" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AL4" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM4" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="AM4" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="AN4" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
@@ -4065,34 +4065,34 @@
         <v>22</v>
       </c>
       <c r="AE5" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF5" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AG5" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AH5" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AI5" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AJ5" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AK5" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AL5" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM5" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="AM5" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="AN5" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/ARCProject/ArcTest.xlsx
+++ b/ARCProject/ArcTest.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="289">
   <si>
     <t>Project Name</t>
   </si>
@@ -874,12 +874,6 @@
     <t>TAveragetime</t>
   </si>
   <si>
-    <t>365</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>US Building Parking 663471</t>
   </si>
   <si>
@@ -905,6 +899,9 @@
   </si>
   <si>
     <t>US Building LEED v4 617242</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
 </sst>
 </file>
@@ -1342,8 +1339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,7 +1370,7 @@
     <col min="28" max="28" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="29" max="29" width="19" customWidth="1" collapsed="1"/>
     <col min="30" max="30" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="16.140625" customWidth="1"/>
+    <col min="31" max="31" width="22.85546875" customWidth="1"/>
     <col min="32" max="32" width="16" customWidth="1"/>
     <col min="33" max="33" width="15.5703125" customWidth="1"/>
   </cols>
@@ -1484,7 +1481,7 @@
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -1603,7 +1600,7 @@
         <v>50</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>279</v>
+        <v>162</v>
       </c>
       <c r="AF3" s="4" t="s">
         <v>162</v>
@@ -1612,7 +1609,7 @@
         <v>275</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
@@ -2240,7 +2237,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>13</v>
@@ -2707,7 +2704,7 @@
         <v>53</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>87</v>
@@ -2728,7 +2725,7 @@
         <v>183</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>188</v>
@@ -2760,7 +2757,7 @@
         <v>69</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>89</v>
@@ -2781,7 +2778,7 @@
         <v>93</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>188</v>
@@ -2813,7 +2810,7 @@
         <v>79</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>96</v>
@@ -2834,7 +2831,7 @@
         <v>100</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>188</v>
@@ -2961,7 +2958,7 @@
         <v>79</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>103</v>
@@ -2982,7 +2979,7 @@
         <v>106</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>188</v>
@@ -3014,7 +3011,7 @@
         <v>53</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>107</v>
@@ -3035,7 +3032,7 @@
         <v>110</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>188</v>
@@ -3067,7 +3064,7 @@
         <v>69</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>112</v>
@@ -3088,7 +3085,7 @@
         <v>116</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>188</v>
